--- a/smc/src/test/resources/DTS_RH850U2C_request_table.xlsx
+++ b/smc/src/test/resources/DTS_RH850U2C_request_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD18E3D-1009-4A13-8785-9230A0B36B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8A4B2-F734-4049-8A0E-829EC7FDCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="719" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="178">
   <si>
     <t>No.</t>
   </si>
@@ -521,6 +521,111 @@
   <si>
     <t>Items / State</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI control</t>
+  </si>
+  <si>
+    <t>Row count</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Enable condition (1st)</t>
+  </si>
+  <si>
+    <t>Enable condition (2nd)</t>
+  </si>
+  <si>
+    <t>Items / State</t>
+  </si>
+  <si>
+    <t>Input range</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Input range condition (1st)</t>
+  </si>
+  <si>
+    <t>Input range condition (2nd)</t>
+  </si>
+  <si>
+    <t>Input range condition (3rd)</t>
+  </si>
+  <si>
+    <t>Input range condition (4th)</t>
+  </si>
+  <si>
+    <t>Input range condition (5th)</t>
+  </si>
+  <si>
+    <t>Input range condition (6th)</t>
+  </si>
+  <si>
+    <t>Register (1st)</t>
+  </si>
+  <si>
+    <t>Register (2nd)</t>
+  </si>
+  <si>
+    <t>Register (3nd)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register (4nd)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register (5nd)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indication
+E:error  W:warning</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>GUI No.</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>Control type</t>
+  </si>
+  <si>
+    <t>Control name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Initial value</t>
+  </si>
+  <si>
+    <t>Min value</t>
+  </si>
+  <si>
+    <t>Max value</t>
+  </si>
+  <si>
+    <t>Register name</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -536,7 +641,7 @@
     <numFmt numFmtId="181" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
     <numFmt numFmtId="182" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,13 +808,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <u val="single"/>
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +840,18 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="22"/>
       </patternFill>
@@ -739,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -871,6 +994,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -1072,7 +1230,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,6 +1282,9 @@
     <xf numFmtId="178" fontId="13" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="13" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1154,19 +1315,133 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="5" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,804 +2090,804 @@
   <sheetData>
     <row r="1" spans="1:778" s="8" customFormat="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="19"/>
-      <c r="BO1" s="19"/>
-      <c r="BP1" s="19"/>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="19"/>
-      <c r="BV1" s="19"/>
-      <c r="BW1" s="19"/>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="19"/>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="19"/>
-      <c r="CI1" s="19"/>
-      <c r="CJ1" s="19"/>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="19"/>
-      <c r="CM1" s="19"/>
-      <c r="CN1" s="19"/>
-      <c r="CO1" s="19"/>
-      <c r="CP1" s="19"/>
-      <c r="CQ1" s="19"/>
-      <c r="CR1" s="19"/>
-      <c r="CS1" s="19"/>
-      <c r="CT1" s="19"/>
-      <c r="CU1" s="19"/>
-      <c r="CV1" s="19"/>
-      <c r="CW1" s="19"/>
-      <c r="CX1" s="19"/>
-      <c r="CY1" s="19"/>
-      <c r="CZ1" s="19"/>
-      <c r="DA1" s="19"/>
-      <c r="DB1" s="19"/>
-      <c r="DC1" s="19"/>
-      <c r="DD1" s="19"/>
-      <c r="DE1" s="19"/>
-      <c r="DF1" s="19"/>
-      <c r="DG1" s="19"/>
-      <c r="DH1" s="19"/>
-      <c r="DI1" s="19"/>
-      <c r="DJ1" s="19"/>
-      <c r="DK1" s="19"/>
-      <c r="DL1" s="19"/>
-      <c r="DM1" s="19"/>
-      <c r="DN1" s="19"/>
-      <c r="DO1" s="19"/>
-      <c r="DP1" s="19"/>
-      <c r="DQ1" s="19"/>
-      <c r="DR1" s="19"/>
-      <c r="DS1" s="19"/>
-      <c r="DT1" s="19"/>
-      <c r="DU1" s="19"/>
-      <c r="DV1" s="19"/>
-      <c r="DW1" s="19"/>
-      <c r="DX1" s="19"/>
-      <c r="DY1" s="19"/>
-      <c r="DZ1" s="19"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="21" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="EC1" s="22"/>
-      <c r="ED1" s="22"/>
-      <c r="EE1" s="22"/>
-      <c r="EF1" s="22"/>
-      <c r="EG1" s="22"/>
-      <c r="EH1" s="22"/>
-      <c r="EI1" s="22"/>
-      <c r="EJ1" s="22"/>
-      <c r="EK1" s="22"/>
-      <c r="EL1" s="22"/>
-      <c r="EM1" s="22"/>
-      <c r="EN1" s="22"/>
-      <c r="EO1" s="22"/>
-      <c r="EP1" s="22"/>
-      <c r="EQ1" s="22"/>
-      <c r="ER1" s="22"/>
-      <c r="ES1" s="22"/>
-      <c r="ET1" s="22"/>
-      <c r="EU1" s="22"/>
-      <c r="EV1" s="22"/>
-      <c r="EW1" s="22"/>
-      <c r="EX1" s="22"/>
-      <c r="EY1" s="22"/>
-      <c r="EZ1" s="22"/>
-      <c r="FA1" s="22"/>
-      <c r="FB1" s="22"/>
-      <c r="FC1" s="22"/>
-      <c r="FD1" s="22"/>
-      <c r="FE1" s="22"/>
-      <c r="FF1" s="22"/>
-      <c r="FG1" s="22"/>
-      <c r="FH1" s="22"/>
-      <c r="FI1" s="22"/>
-      <c r="FJ1" s="22"/>
-      <c r="FK1" s="22"/>
-      <c r="FL1" s="22"/>
-      <c r="FM1" s="22"/>
-      <c r="FN1" s="22"/>
-      <c r="FO1" s="22"/>
-      <c r="FP1" s="22"/>
-      <c r="FQ1" s="22"/>
-      <c r="FR1" s="22"/>
-      <c r="FS1" s="22"/>
-      <c r="FT1" s="22"/>
-      <c r="FU1" s="22"/>
-      <c r="FV1" s="22"/>
-      <c r="FW1" s="22"/>
-      <c r="FX1" s="22"/>
-      <c r="FY1" s="22"/>
-      <c r="FZ1" s="22"/>
-      <c r="GA1" s="22"/>
-      <c r="GB1" s="22"/>
-      <c r="GC1" s="22"/>
-      <c r="GD1" s="22"/>
-      <c r="GE1" s="22"/>
-      <c r="GF1" s="22"/>
-      <c r="GG1" s="22"/>
-      <c r="GH1" s="22"/>
-      <c r="GI1" s="22"/>
-      <c r="GJ1" s="22"/>
-      <c r="GK1" s="22"/>
-      <c r="GL1" s="22"/>
-      <c r="GM1" s="22"/>
-      <c r="GN1" s="22"/>
-      <c r="GO1" s="22"/>
-      <c r="GP1" s="22"/>
-      <c r="GQ1" s="22"/>
-      <c r="GR1" s="22"/>
-      <c r="GS1" s="22"/>
-      <c r="GT1" s="22"/>
-      <c r="GU1" s="22"/>
-      <c r="GV1" s="22"/>
-      <c r="GW1" s="22"/>
-      <c r="GX1" s="22"/>
-      <c r="GY1" s="22"/>
-      <c r="GZ1" s="22"/>
-      <c r="HA1" s="22"/>
-      <c r="HB1" s="22"/>
-      <c r="HC1" s="22"/>
-      <c r="HD1" s="22"/>
-      <c r="HE1" s="22"/>
-      <c r="HF1" s="22"/>
-      <c r="HG1" s="22"/>
-      <c r="HH1" s="22"/>
-      <c r="HI1" s="22"/>
-      <c r="HJ1" s="22"/>
-      <c r="HK1" s="22"/>
-      <c r="HL1" s="22"/>
-      <c r="HM1" s="22"/>
-      <c r="HN1" s="22"/>
-      <c r="HO1" s="22"/>
-      <c r="HP1" s="22"/>
-      <c r="HQ1" s="22"/>
-      <c r="HR1" s="22"/>
-      <c r="HS1" s="22"/>
-      <c r="HT1" s="22"/>
-      <c r="HU1" s="22"/>
-      <c r="HV1" s="22"/>
-      <c r="HW1" s="22"/>
-      <c r="HX1" s="22"/>
-      <c r="HY1" s="22"/>
-      <c r="HZ1" s="22"/>
-      <c r="IA1" s="22"/>
-      <c r="IB1" s="22"/>
-      <c r="IC1" s="22"/>
-      <c r="ID1" s="22"/>
-      <c r="IE1" s="22"/>
-      <c r="IF1" s="22"/>
-      <c r="IG1" s="22"/>
-      <c r="IH1" s="22"/>
-      <c r="II1" s="22"/>
-      <c r="IJ1" s="22"/>
-      <c r="IK1" s="22"/>
-      <c r="IL1" s="22"/>
-      <c r="IM1" s="22"/>
-      <c r="IN1" s="22"/>
-      <c r="IO1" s="22"/>
-      <c r="IP1" s="22"/>
-      <c r="IQ1" s="22"/>
-      <c r="IR1" s="22"/>
-      <c r="IS1" s="22"/>
-      <c r="IT1" s="22"/>
-      <c r="IU1" s="22"/>
-      <c r="IV1" s="22"/>
-      <c r="IW1" s="22"/>
-      <c r="IX1" s="22"/>
-      <c r="IY1" s="23"/>
-      <c r="IZ1" s="18" t="s">
+      <c r="EC1" s="23"/>
+      <c r="ED1" s="23"/>
+      <c r="EE1" s="23"/>
+      <c r="EF1" s="23"/>
+      <c r="EG1" s="23"/>
+      <c r="EH1" s="23"/>
+      <c r="EI1" s="23"/>
+      <c r="EJ1" s="23"/>
+      <c r="EK1" s="23"/>
+      <c r="EL1" s="23"/>
+      <c r="EM1" s="23"/>
+      <c r="EN1" s="23"/>
+      <c r="EO1" s="23"/>
+      <c r="EP1" s="23"/>
+      <c r="EQ1" s="23"/>
+      <c r="ER1" s="23"/>
+      <c r="ES1" s="23"/>
+      <c r="ET1" s="23"/>
+      <c r="EU1" s="23"/>
+      <c r="EV1" s="23"/>
+      <c r="EW1" s="23"/>
+      <c r="EX1" s="23"/>
+      <c r="EY1" s="23"/>
+      <c r="EZ1" s="23"/>
+      <c r="FA1" s="23"/>
+      <c r="FB1" s="23"/>
+      <c r="FC1" s="23"/>
+      <c r="FD1" s="23"/>
+      <c r="FE1" s="23"/>
+      <c r="FF1" s="23"/>
+      <c r="FG1" s="23"/>
+      <c r="FH1" s="23"/>
+      <c r="FI1" s="23"/>
+      <c r="FJ1" s="23"/>
+      <c r="FK1" s="23"/>
+      <c r="FL1" s="23"/>
+      <c r="FM1" s="23"/>
+      <c r="FN1" s="23"/>
+      <c r="FO1" s="23"/>
+      <c r="FP1" s="23"/>
+      <c r="FQ1" s="23"/>
+      <c r="FR1" s="23"/>
+      <c r="FS1" s="23"/>
+      <c r="FT1" s="23"/>
+      <c r="FU1" s="23"/>
+      <c r="FV1" s="23"/>
+      <c r="FW1" s="23"/>
+      <c r="FX1" s="23"/>
+      <c r="FY1" s="23"/>
+      <c r="FZ1" s="23"/>
+      <c r="GA1" s="23"/>
+      <c r="GB1" s="23"/>
+      <c r="GC1" s="23"/>
+      <c r="GD1" s="23"/>
+      <c r="GE1" s="23"/>
+      <c r="GF1" s="23"/>
+      <c r="GG1" s="23"/>
+      <c r="GH1" s="23"/>
+      <c r="GI1" s="23"/>
+      <c r="GJ1" s="23"/>
+      <c r="GK1" s="23"/>
+      <c r="GL1" s="23"/>
+      <c r="GM1" s="23"/>
+      <c r="GN1" s="23"/>
+      <c r="GO1" s="23"/>
+      <c r="GP1" s="23"/>
+      <c r="GQ1" s="23"/>
+      <c r="GR1" s="23"/>
+      <c r="GS1" s="23"/>
+      <c r="GT1" s="23"/>
+      <c r="GU1" s="23"/>
+      <c r="GV1" s="23"/>
+      <c r="GW1" s="23"/>
+      <c r="GX1" s="23"/>
+      <c r="GY1" s="23"/>
+      <c r="GZ1" s="23"/>
+      <c r="HA1" s="23"/>
+      <c r="HB1" s="23"/>
+      <c r="HC1" s="23"/>
+      <c r="HD1" s="23"/>
+      <c r="HE1" s="23"/>
+      <c r="HF1" s="23"/>
+      <c r="HG1" s="23"/>
+      <c r="HH1" s="23"/>
+      <c r="HI1" s="23"/>
+      <c r="HJ1" s="23"/>
+      <c r="HK1" s="23"/>
+      <c r="HL1" s="23"/>
+      <c r="HM1" s="23"/>
+      <c r="HN1" s="23"/>
+      <c r="HO1" s="23"/>
+      <c r="HP1" s="23"/>
+      <c r="HQ1" s="23"/>
+      <c r="HR1" s="23"/>
+      <c r="HS1" s="23"/>
+      <c r="HT1" s="23"/>
+      <c r="HU1" s="23"/>
+      <c r="HV1" s="23"/>
+      <c r="HW1" s="23"/>
+      <c r="HX1" s="23"/>
+      <c r="HY1" s="23"/>
+      <c r="HZ1" s="23"/>
+      <c r="IA1" s="23"/>
+      <c r="IB1" s="23"/>
+      <c r="IC1" s="23"/>
+      <c r="ID1" s="23"/>
+      <c r="IE1" s="23"/>
+      <c r="IF1" s="23"/>
+      <c r="IG1" s="23"/>
+      <c r="IH1" s="23"/>
+      <c r="II1" s="23"/>
+      <c r="IJ1" s="23"/>
+      <c r="IK1" s="23"/>
+      <c r="IL1" s="23"/>
+      <c r="IM1" s="23"/>
+      <c r="IN1" s="23"/>
+      <c r="IO1" s="23"/>
+      <c r="IP1" s="23"/>
+      <c r="IQ1" s="23"/>
+      <c r="IR1" s="23"/>
+      <c r="IS1" s="23"/>
+      <c r="IT1" s="23"/>
+      <c r="IU1" s="23"/>
+      <c r="IV1" s="23"/>
+      <c r="IW1" s="23"/>
+      <c r="IX1" s="23"/>
+      <c r="IY1" s="24"/>
+      <c r="IZ1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="JA1" s="19"/>
-      <c r="JB1" s="19"/>
-      <c r="JC1" s="19"/>
-      <c r="JD1" s="19"/>
-      <c r="JE1" s="19"/>
-      <c r="JF1" s="19"/>
-      <c r="JG1" s="19"/>
-      <c r="JH1" s="19"/>
-      <c r="JI1" s="19"/>
-      <c r="JJ1" s="19"/>
-      <c r="JK1" s="19"/>
-      <c r="JL1" s="19"/>
-      <c r="JM1" s="19"/>
-      <c r="JN1" s="19"/>
-      <c r="JO1" s="19"/>
-      <c r="JP1" s="19"/>
-      <c r="JQ1" s="19"/>
-      <c r="JR1" s="19"/>
-      <c r="JS1" s="19"/>
-      <c r="JT1" s="19"/>
-      <c r="JU1" s="19"/>
-      <c r="JV1" s="19"/>
-      <c r="JW1" s="19"/>
-      <c r="JX1" s="19"/>
-      <c r="JY1" s="19"/>
-      <c r="JZ1" s="19"/>
-      <c r="KA1" s="19"/>
-      <c r="KB1" s="19"/>
-      <c r="KC1" s="19"/>
-      <c r="KD1" s="19"/>
-      <c r="KE1" s="19"/>
-      <c r="KF1" s="19"/>
-      <c r="KG1" s="19"/>
-      <c r="KH1" s="19"/>
-      <c r="KI1" s="19"/>
-      <c r="KJ1" s="19"/>
-      <c r="KK1" s="19"/>
-      <c r="KL1" s="19"/>
-      <c r="KM1" s="19"/>
-      <c r="KN1" s="19"/>
-      <c r="KO1" s="19"/>
-      <c r="KP1" s="19"/>
-      <c r="KQ1" s="19"/>
-      <c r="KR1" s="19"/>
-      <c r="KS1" s="19"/>
-      <c r="KT1" s="19"/>
-      <c r="KU1" s="19"/>
-      <c r="KV1" s="19"/>
-      <c r="KW1" s="19"/>
-      <c r="KX1" s="19"/>
-      <c r="KY1" s="19"/>
-      <c r="KZ1" s="19"/>
-      <c r="LA1" s="19"/>
-      <c r="LB1" s="19"/>
-      <c r="LC1" s="19"/>
-      <c r="LD1" s="19"/>
-      <c r="LE1" s="19"/>
-      <c r="LF1" s="19"/>
-      <c r="LG1" s="19"/>
-      <c r="LH1" s="19"/>
-      <c r="LI1" s="19"/>
-      <c r="LJ1" s="19"/>
-      <c r="LK1" s="19"/>
-      <c r="LL1" s="19"/>
-      <c r="LM1" s="19"/>
-      <c r="LN1" s="19"/>
-      <c r="LO1" s="19"/>
-      <c r="LP1" s="19"/>
-      <c r="LQ1" s="19"/>
-      <c r="LR1" s="19"/>
-      <c r="LS1" s="19"/>
-      <c r="LT1" s="19"/>
-      <c r="LU1" s="19"/>
-      <c r="LV1" s="19"/>
-      <c r="LW1" s="19"/>
-      <c r="LX1" s="19"/>
-      <c r="LY1" s="19"/>
-      <c r="LZ1" s="19"/>
-      <c r="MA1" s="19"/>
-      <c r="MB1" s="19"/>
-      <c r="MC1" s="19"/>
-      <c r="MD1" s="19"/>
-      <c r="ME1" s="19"/>
-      <c r="MF1" s="19"/>
-      <c r="MG1" s="19"/>
-      <c r="MH1" s="19"/>
-      <c r="MI1" s="19"/>
-      <c r="MJ1" s="19"/>
-      <c r="MK1" s="19"/>
-      <c r="ML1" s="19"/>
-      <c r="MM1" s="19"/>
-      <c r="MN1" s="19"/>
-      <c r="MO1" s="19"/>
-      <c r="MP1" s="19"/>
-      <c r="MQ1" s="19"/>
-      <c r="MR1" s="19"/>
-      <c r="MS1" s="19"/>
-      <c r="MT1" s="19"/>
-      <c r="MU1" s="19"/>
-      <c r="MV1" s="19"/>
-      <c r="MW1" s="19"/>
-      <c r="MX1" s="19"/>
-      <c r="MY1" s="19"/>
-      <c r="MZ1" s="19"/>
-      <c r="NA1" s="19"/>
-      <c r="NB1" s="19"/>
-      <c r="NC1" s="19"/>
-      <c r="ND1" s="19"/>
-      <c r="NE1" s="19"/>
-      <c r="NF1" s="19"/>
-      <c r="NG1" s="19"/>
-      <c r="NH1" s="19"/>
-      <c r="NI1" s="19"/>
-      <c r="NJ1" s="19"/>
-      <c r="NK1" s="19"/>
-      <c r="NL1" s="19"/>
-      <c r="NM1" s="19"/>
-      <c r="NN1" s="19"/>
-      <c r="NO1" s="19"/>
-      <c r="NP1" s="19"/>
-      <c r="NQ1" s="19"/>
-      <c r="NR1" s="19"/>
-      <c r="NS1" s="19"/>
-      <c r="NT1" s="19"/>
-      <c r="NU1" s="19"/>
-      <c r="NV1" s="19"/>
-      <c r="NW1" s="20"/>
-      <c r="NX1" s="21" t="s">
+      <c r="JA1" s="20"/>
+      <c r="JB1" s="20"/>
+      <c r="JC1" s="20"/>
+      <c r="JD1" s="20"/>
+      <c r="JE1" s="20"/>
+      <c r="JF1" s="20"/>
+      <c r="JG1" s="20"/>
+      <c r="JH1" s="20"/>
+      <c r="JI1" s="20"/>
+      <c r="JJ1" s="20"/>
+      <c r="JK1" s="20"/>
+      <c r="JL1" s="20"/>
+      <c r="JM1" s="20"/>
+      <c r="JN1" s="20"/>
+      <c r="JO1" s="20"/>
+      <c r="JP1" s="20"/>
+      <c r="JQ1" s="20"/>
+      <c r="JR1" s="20"/>
+      <c r="JS1" s="20"/>
+      <c r="JT1" s="20"/>
+      <c r="JU1" s="20"/>
+      <c r="JV1" s="20"/>
+      <c r="JW1" s="20"/>
+      <c r="JX1" s="20"/>
+      <c r="JY1" s="20"/>
+      <c r="JZ1" s="20"/>
+      <c r="KA1" s="20"/>
+      <c r="KB1" s="20"/>
+      <c r="KC1" s="20"/>
+      <c r="KD1" s="20"/>
+      <c r="KE1" s="20"/>
+      <c r="KF1" s="20"/>
+      <c r="KG1" s="20"/>
+      <c r="KH1" s="20"/>
+      <c r="KI1" s="20"/>
+      <c r="KJ1" s="20"/>
+      <c r="KK1" s="20"/>
+      <c r="KL1" s="20"/>
+      <c r="KM1" s="20"/>
+      <c r="KN1" s="20"/>
+      <c r="KO1" s="20"/>
+      <c r="KP1" s="20"/>
+      <c r="KQ1" s="20"/>
+      <c r="KR1" s="20"/>
+      <c r="KS1" s="20"/>
+      <c r="KT1" s="20"/>
+      <c r="KU1" s="20"/>
+      <c r="KV1" s="20"/>
+      <c r="KW1" s="20"/>
+      <c r="KX1" s="20"/>
+      <c r="KY1" s="20"/>
+      <c r="KZ1" s="20"/>
+      <c r="LA1" s="20"/>
+      <c r="LB1" s="20"/>
+      <c r="LC1" s="20"/>
+      <c r="LD1" s="20"/>
+      <c r="LE1" s="20"/>
+      <c r="LF1" s="20"/>
+      <c r="LG1" s="20"/>
+      <c r="LH1" s="20"/>
+      <c r="LI1" s="20"/>
+      <c r="LJ1" s="20"/>
+      <c r="LK1" s="20"/>
+      <c r="LL1" s="20"/>
+      <c r="LM1" s="20"/>
+      <c r="LN1" s="20"/>
+      <c r="LO1" s="20"/>
+      <c r="LP1" s="20"/>
+      <c r="LQ1" s="20"/>
+      <c r="LR1" s="20"/>
+      <c r="LS1" s="20"/>
+      <c r="LT1" s="20"/>
+      <c r="LU1" s="20"/>
+      <c r="LV1" s="20"/>
+      <c r="LW1" s="20"/>
+      <c r="LX1" s="20"/>
+      <c r="LY1" s="20"/>
+      <c r="LZ1" s="20"/>
+      <c r="MA1" s="20"/>
+      <c r="MB1" s="20"/>
+      <c r="MC1" s="20"/>
+      <c r="MD1" s="20"/>
+      <c r="ME1" s="20"/>
+      <c r="MF1" s="20"/>
+      <c r="MG1" s="20"/>
+      <c r="MH1" s="20"/>
+      <c r="MI1" s="20"/>
+      <c r="MJ1" s="20"/>
+      <c r="MK1" s="20"/>
+      <c r="ML1" s="20"/>
+      <c r="MM1" s="20"/>
+      <c r="MN1" s="20"/>
+      <c r="MO1" s="20"/>
+      <c r="MP1" s="20"/>
+      <c r="MQ1" s="20"/>
+      <c r="MR1" s="20"/>
+      <c r="MS1" s="20"/>
+      <c r="MT1" s="20"/>
+      <c r="MU1" s="20"/>
+      <c r="MV1" s="20"/>
+      <c r="MW1" s="20"/>
+      <c r="MX1" s="20"/>
+      <c r="MY1" s="20"/>
+      <c r="MZ1" s="20"/>
+      <c r="NA1" s="20"/>
+      <c r="NB1" s="20"/>
+      <c r="NC1" s="20"/>
+      <c r="ND1" s="20"/>
+      <c r="NE1" s="20"/>
+      <c r="NF1" s="20"/>
+      <c r="NG1" s="20"/>
+      <c r="NH1" s="20"/>
+      <c r="NI1" s="20"/>
+      <c r="NJ1" s="20"/>
+      <c r="NK1" s="20"/>
+      <c r="NL1" s="20"/>
+      <c r="NM1" s="20"/>
+      <c r="NN1" s="20"/>
+      <c r="NO1" s="20"/>
+      <c r="NP1" s="20"/>
+      <c r="NQ1" s="20"/>
+      <c r="NR1" s="20"/>
+      <c r="NS1" s="20"/>
+      <c r="NT1" s="20"/>
+      <c r="NU1" s="20"/>
+      <c r="NV1" s="20"/>
+      <c r="NW1" s="21"/>
+      <c r="NX1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="NY1" s="22"/>
-      <c r="NZ1" s="22"/>
-      <c r="OA1" s="22"/>
-      <c r="OB1" s="22"/>
-      <c r="OC1" s="22"/>
-      <c r="OD1" s="22"/>
-      <c r="OE1" s="22"/>
-      <c r="OF1" s="22"/>
-      <c r="OG1" s="22"/>
-      <c r="OH1" s="22"/>
-      <c r="OI1" s="22"/>
-      <c r="OJ1" s="22"/>
-      <c r="OK1" s="22"/>
-      <c r="OL1" s="22"/>
-      <c r="OM1" s="22"/>
-      <c r="ON1" s="22"/>
-      <c r="OO1" s="22"/>
-      <c r="OP1" s="22"/>
-      <c r="OQ1" s="22"/>
-      <c r="OR1" s="22"/>
-      <c r="OS1" s="22"/>
-      <c r="OT1" s="22"/>
-      <c r="OU1" s="22"/>
-      <c r="OV1" s="22"/>
-      <c r="OW1" s="22"/>
-      <c r="OX1" s="22"/>
-      <c r="OY1" s="22"/>
-      <c r="OZ1" s="22"/>
-      <c r="PA1" s="22"/>
-      <c r="PB1" s="22"/>
-      <c r="PC1" s="22"/>
-      <c r="PD1" s="22"/>
-      <c r="PE1" s="22"/>
-      <c r="PF1" s="22"/>
-      <c r="PG1" s="22"/>
-      <c r="PH1" s="22"/>
-      <c r="PI1" s="22"/>
-      <c r="PJ1" s="22"/>
-      <c r="PK1" s="22"/>
-      <c r="PL1" s="22"/>
-      <c r="PM1" s="22"/>
-      <c r="PN1" s="22"/>
-      <c r="PO1" s="22"/>
-      <c r="PP1" s="22"/>
-      <c r="PQ1" s="22"/>
-      <c r="PR1" s="22"/>
-      <c r="PS1" s="22"/>
-      <c r="PT1" s="22"/>
-      <c r="PU1" s="22"/>
-      <c r="PV1" s="22"/>
-      <c r="PW1" s="22"/>
-      <c r="PX1" s="22"/>
-      <c r="PY1" s="22"/>
-      <c r="PZ1" s="22"/>
-      <c r="QA1" s="22"/>
-      <c r="QB1" s="22"/>
-      <c r="QC1" s="22"/>
-      <c r="QD1" s="22"/>
-      <c r="QE1" s="22"/>
-      <c r="QF1" s="22"/>
-      <c r="QG1" s="22"/>
-      <c r="QH1" s="22"/>
-      <c r="QI1" s="22"/>
-      <c r="QJ1" s="22"/>
-      <c r="QK1" s="22"/>
-      <c r="QL1" s="22"/>
-      <c r="QM1" s="22"/>
-      <c r="QN1" s="22"/>
-      <c r="QO1" s="22"/>
-      <c r="QP1" s="22"/>
-      <c r="QQ1" s="22"/>
-      <c r="QR1" s="22"/>
-      <c r="QS1" s="22"/>
-      <c r="QT1" s="22"/>
-      <c r="QU1" s="22"/>
-      <c r="QV1" s="22"/>
-      <c r="QW1" s="22"/>
-      <c r="QX1" s="22"/>
-      <c r="QY1" s="22"/>
-      <c r="QZ1" s="22"/>
-      <c r="RA1" s="22"/>
-      <c r="RB1" s="22"/>
-      <c r="RC1" s="22"/>
-      <c r="RD1" s="22"/>
-      <c r="RE1" s="22"/>
-      <c r="RF1" s="22"/>
-      <c r="RG1" s="22"/>
-      <c r="RH1" s="22"/>
-      <c r="RI1" s="22"/>
-      <c r="RJ1" s="22"/>
-      <c r="RK1" s="22"/>
-      <c r="RL1" s="22"/>
-      <c r="RM1" s="22"/>
-      <c r="RN1" s="22"/>
-      <c r="RO1" s="22"/>
-      <c r="RP1" s="22"/>
-      <c r="RQ1" s="22"/>
-      <c r="RR1" s="22"/>
-      <c r="RS1" s="22"/>
-      <c r="RT1" s="22"/>
-      <c r="RU1" s="22"/>
-      <c r="RV1" s="22"/>
-      <c r="RW1" s="22"/>
-      <c r="RX1" s="22"/>
-      <c r="RY1" s="22"/>
-      <c r="RZ1" s="22"/>
-      <c r="SA1" s="22"/>
-      <c r="SB1" s="22"/>
-      <c r="SC1" s="22"/>
-      <c r="SD1" s="22"/>
-      <c r="SE1" s="22"/>
-      <c r="SF1" s="22"/>
-      <c r="SG1" s="22"/>
-      <c r="SH1" s="22"/>
-      <c r="SI1" s="22"/>
-      <c r="SJ1" s="22"/>
-      <c r="SK1" s="22"/>
-      <c r="SL1" s="22"/>
-      <c r="SM1" s="22"/>
-      <c r="SN1" s="22"/>
-      <c r="SO1" s="22"/>
-      <c r="SP1" s="22"/>
-      <c r="SQ1" s="22"/>
-      <c r="SR1" s="22"/>
-      <c r="SS1" s="22"/>
-      <c r="ST1" s="22"/>
-      <c r="SU1" s="23"/>
-      <c r="SV1" s="18" t="s">
+      <c r="NY1" s="23"/>
+      <c r="NZ1" s="23"/>
+      <c r="OA1" s="23"/>
+      <c r="OB1" s="23"/>
+      <c r="OC1" s="23"/>
+      <c r="OD1" s="23"/>
+      <c r="OE1" s="23"/>
+      <c r="OF1" s="23"/>
+      <c r="OG1" s="23"/>
+      <c r="OH1" s="23"/>
+      <c r="OI1" s="23"/>
+      <c r="OJ1" s="23"/>
+      <c r="OK1" s="23"/>
+      <c r="OL1" s="23"/>
+      <c r="OM1" s="23"/>
+      <c r="ON1" s="23"/>
+      <c r="OO1" s="23"/>
+      <c r="OP1" s="23"/>
+      <c r="OQ1" s="23"/>
+      <c r="OR1" s="23"/>
+      <c r="OS1" s="23"/>
+      <c r="OT1" s="23"/>
+      <c r="OU1" s="23"/>
+      <c r="OV1" s="23"/>
+      <c r="OW1" s="23"/>
+      <c r="OX1" s="23"/>
+      <c r="OY1" s="23"/>
+      <c r="OZ1" s="23"/>
+      <c r="PA1" s="23"/>
+      <c r="PB1" s="23"/>
+      <c r="PC1" s="23"/>
+      <c r="PD1" s="23"/>
+      <c r="PE1" s="23"/>
+      <c r="PF1" s="23"/>
+      <c r="PG1" s="23"/>
+      <c r="PH1" s="23"/>
+      <c r="PI1" s="23"/>
+      <c r="PJ1" s="23"/>
+      <c r="PK1" s="23"/>
+      <c r="PL1" s="23"/>
+      <c r="PM1" s="23"/>
+      <c r="PN1" s="23"/>
+      <c r="PO1" s="23"/>
+      <c r="PP1" s="23"/>
+      <c r="PQ1" s="23"/>
+      <c r="PR1" s="23"/>
+      <c r="PS1" s="23"/>
+      <c r="PT1" s="23"/>
+      <c r="PU1" s="23"/>
+      <c r="PV1" s="23"/>
+      <c r="PW1" s="23"/>
+      <c r="PX1" s="23"/>
+      <c r="PY1" s="23"/>
+      <c r="PZ1" s="23"/>
+      <c r="QA1" s="23"/>
+      <c r="QB1" s="23"/>
+      <c r="QC1" s="23"/>
+      <c r="QD1" s="23"/>
+      <c r="QE1" s="23"/>
+      <c r="QF1" s="23"/>
+      <c r="QG1" s="23"/>
+      <c r="QH1" s="23"/>
+      <c r="QI1" s="23"/>
+      <c r="QJ1" s="23"/>
+      <c r="QK1" s="23"/>
+      <c r="QL1" s="23"/>
+      <c r="QM1" s="23"/>
+      <c r="QN1" s="23"/>
+      <c r="QO1" s="23"/>
+      <c r="QP1" s="23"/>
+      <c r="QQ1" s="23"/>
+      <c r="QR1" s="23"/>
+      <c r="QS1" s="23"/>
+      <c r="QT1" s="23"/>
+      <c r="QU1" s="23"/>
+      <c r="QV1" s="23"/>
+      <c r="QW1" s="23"/>
+      <c r="QX1" s="23"/>
+      <c r="QY1" s="23"/>
+      <c r="QZ1" s="23"/>
+      <c r="RA1" s="23"/>
+      <c r="RB1" s="23"/>
+      <c r="RC1" s="23"/>
+      <c r="RD1" s="23"/>
+      <c r="RE1" s="23"/>
+      <c r="RF1" s="23"/>
+      <c r="RG1" s="23"/>
+      <c r="RH1" s="23"/>
+      <c r="RI1" s="23"/>
+      <c r="RJ1" s="23"/>
+      <c r="RK1" s="23"/>
+      <c r="RL1" s="23"/>
+      <c r="RM1" s="23"/>
+      <c r="RN1" s="23"/>
+      <c r="RO1" s="23"/>
+      <c r="RP1" s="23"/>
+      <c r="RQ1" s="23"/>
+      <c r="RR1" s="23"/>
+      <c r="RS1" s="23"/>
+      <c r="RT1" s="23"/>
+      <c r="RU1" s="23"/>
+      <c r="RV1" s="23"/>
+      <c r="RW1" s="23"/>
+      <c r="RX1" s="23"/>
+      <c r="RY1" s="23"/>
+      <c r="RZ1" s="23"/>
+      <c r="SA1" s="23"/>
+      <c r="SB1" s="23"/>
+      <c r="SC1" s="23"/>
+      <c r="SD1" s="23"/>
+      <c r="SE1" s="23"/>
+      <c r="SF1" s="23"/>
+      <c r="SG1" s="23"/>
+      <c r="SH1" s="23"/>
+      <c r="SI1" s="23"/>
+      <c r="SJ1" s="23"/>
+      <c r="SK1" s="23"/>
+      <c r="SL1" s="23"/>
+      <c r="SM1" s="23"/>
+      <c r="SN1" s="23"/>
+      <c r="SO1" s="23"/>
+      <c r="SP1" s="23"/>
+      <c r="SQ1" s="23"/>
+      <c r="SR1" s="23"/>
+      <c r="SS1" s="23"/>
+      <c r="ST1" s="23"/>
+      <c r="SU1" s="24"/>
+      <c r="SV1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="SW1" s="19"/>
-      <c r="SX1" s="19"/>
-      <c r="SY1" s="19"/>
-      <c r="SZ1" s="19"/>
-      <c r="TA1" s="19"/>
-      <c r="TB1" s="19"/>
-      <c r="TC1" s="19"/>
-      <c r="TD1" s="19"/>
-      <c r="TE1" s="19"/>
-      <c r="TF1" s="19"/>
-      <c r="TG1" s="19"/>
-      <c r="TH1" s="19"/>
-      <c r="TI1" s="19"/>
-      <c r="TJ1" s="19"/>
-      <c r="TK1" s="19"/>
-      <c r="TL1" s="19"/>
-      <c r="TM1" s="19"/>
-      <c r="TN1" s="19"/>
-      <c r="TO1" s="19"/>
-      <c r="TP1" s="19"/>
-      <c r="TQ1" s="19"/>
-      <c r="TR1" s="19"/>
-      <c r="TS1" s="19"/>
-      <c r="TT1" s="19"/>
-      <c r="TU1" s="19"/>
-      <c r="TV1" s="19"/>
-      <c r="TW1" s="19"/>
-      <c r="TX1" s="19"/>
-      <c r="TY1" s="19"/>
-      <c r="TZ1" s="19"/>
-      <c r="UA1" s="19"/>
-      <c r="UB1" s="19"/>
-      <c r="UC1" s="19"/>
-      <c r="UD1" s="19"/>
-      <c r="UE1" s="19"/>
-      <c r="UF1" s="19"/>
-      <c r="UG1" s="19"/>
-      <c r="UH1" s="19"/>
-      <c r="UI1" s="19"/>
-      <c r="UJ1" s="19"/>
-      <c r="UK1" s="19"/>
-      <c r="UL1" s="19"/>
-      <c r="UM1" s="19"/>
-      <c r="UN1" s="19"/>
-      <c r="UO1" s="19"/>
-      <c r="UP1" s="19"/>
-      <c r="UQ1" s="19"/>
-      <c r="UR1" s="19"/>
-      <c r="US1" s="19"/>
-      <c r="UT1" s="19"/>
-      <c r="UU1" s="19"/>
-      <c r="UV1" s="19"/>
-      <c r="UW1" s="19"/>
-      <c r="UX1" s="19"/>
-      <c r="UY1" s="19"/>
-      <c r="UZ1" s="19"/>
-      <c r="VA1" s="19"/>
-      <c r="VB1" s="19"/>
-      <c r="VC1" s="19"/>
-      <c r="VD1" s="19"/>
-      <c r="VE1" s="19"/>
-      <c r="VF1" s="19"/>
-      <c r="VG1" s="19"/>
-      <c r="VH1" s="19"/>
-      <c r="VI1" s="19"/>
-      <c r="VJ1" s="19"/>
-      <c r="VK1" s="19"/>
-      <c r="VL1" s="19"/>
-      <c r="VM1" s="19"/>
-      <c r="VN1" s="19"/>
-      <c r="VO1" s="19"/>
-      <c r="VP1" s="19"/>
-      <c r="VQ1" s="19"/>
-      <c r="VR1" s="19"/>
-      <c r="VS1" s="19"/>
-      <c r="VT1" s="19"/>
-      <c r="VU1" s="19"/>
-      <c r="VV1" s="19"/>
-      <c r="VW1" s="19"/>
-      <c r="VX1" s="19"/>
-      <c r="VY1" s="19"/>
-      <c r="VZ1" s="19"/>
-      <c r="WA1" s="19"/>
-      <c r="WB1" s="19"/>
-      <c r="WC1" s="19"/>
-      <c r="WD1" s="19"/>
-      <c r="WE1" s="19"/>
-      <c r="WF1" s="19"/>
-      <c r="WG1" s="19"/>
-      <c r="WH1" s="19"/>
-      <c r="WI1" s="19"/>
-      <c r="WJ1" s="19"/>
-      <c r="WK1" s="19"/>
-      <c r="WL1" s="19"/>
-      <c r="WM1" s="19"/>
-      <c r="WN1" s="19"/>
-      <c r="WO1" s="19"/>
-      <c r="WP1" s="19"/>
-      <c r="WQ1" s="19"/>
-      <c r="WR1" s="19"/>
-      <c r="WS1" s="19"/>
-      <c r="WT1" s="19"/>
-      <c r="WU1" s="19"/>
-      <c r="WV1" s="19"/>
-      <c r="WW1" s="19"/>
-      <c r="WX1" s="19"/>
-      <c r="WY1" s="19"/>
-      <c r="WZ1" s="19"/>
-      <c r="XA1" s="19"/>
-      <c r="XB1" s="19"/>
-      <c r="XC1" s="19"/>
-      <c r="XD1" s="19"/>
-      <c r="XE1" s="19"/>
-      <c r="XF1" s="19"/>
-      <c r="XG1" s="19"/>
-      <c r="XH1" s="19"/>
-      <c r="XI1" s="19"/>
-      <c r="XJ1" s="19"/>
-      <c r="XK1" s="19"/>
-      <c r="XL1" s="19"/>
-      <c r="XM1" s="19"/>
-      <c r="XN1" s="19"/>
-      <c r="XO1" s="19"/>
-      <c r="XP1" s="19"/>
-      <c r="XQ1" s="19"/>
-      <c r="XR1" s="19"/>
-      <c r="XS1" s="20"/>
-      <c r="XT1" s="21" t="s">
+      <c r="SW1" s="20"/>
+      <c r="SX1" s="20"/>
+      <c r="SY1" s="20"/>
+      <c r="SZ1" s="20"/>
+      <c r="TA1" s="20"/>
+      <c r="TB1" s="20"/>
+      <c r="TC1" s="20"/>
+      <c r="TD1" s="20"/>
+      <c r="TE1" s="20"/>
+      <c r="TF1" s="20"/>
+      <c r="TG1" s="20"/>
+      <c r="TH1" s="20"/>
+      <c r="TI1" s="20"/>
+      <c r="TJ1" s="20"/>
+      <c r="TK1" s="20"/>
+      <c r="TL1" s="20"/>
+      <c r="TM1" s="20"/>
+      <c r="TN1" s="20"/>
+      <c r="TO1" s="20"/>
+      <c r="TP1" s="20"/>
+      <c r="TQ1" s="20"/>
+      <c r="TR1" s="20"/>
+      <c r="TS1" s="20"/>
+      <c r="TT1" s="20"/>
+      <c r="TU1" s="20"/>
+      <c r="TV1" s="20"/>
+      <c r="TW1" s="20"/>
+      <c r="TX1" s="20"/>
+      <c r="TY1" s="20"/>
+      <c r="TZ1" s="20"/>
+      <c r="UA1" s="20"/>
+      <c r="UB1" s="20"/>
+      <c r="UC1" s="20"/>
+      <c r="UD1" s="20"/>
+      <c r="UE1" s="20"/>
+      <c r="UF1" s="20"/>
+      <c r="UG1" s="20"/>
+      <c r="UH1" s="20"/>
+      <c r="UI1" s="20"/>
+      <c r="UJ1" s="20"/>
+      <c r="UK1" s="20"/>
+      <c r="UL1" s="20"/>
+      <c r="UM1" s="20"/>
+      <c r="UN1" s="20"/>
+      <c r="UO1" s="20"/>
+      <c r="UP1" s="20"/>
+      <c r="UQ1" s="20"/>
+      <c r="UR1" s="20"/>
+      <c r="US1" s="20"/>
+      <c r="UT1" s="20"/>
+      <c r="UU1" s="20"/>
+      <c r="UV1" s="20"/>
+      <c r="UW1" s="20"/>
+      <c r="UX1" s="20"/>
+      <c r="UY1" s="20"/>
+      <c r="UZ1" s="20"/>
+      <c r="VA1" s="20"/>
+      <c r="VB1" s="20"/>
+      <c r="VC1" s="20"/>
+      <c r="VD1" s="20"/>
+      <c r="VE1" s="20"/>
+      <c r="VF1" s="20"/>
+      <c r="VG1" s="20"/>
+      <c r="VH1" s="20"/>
+      <c r="VI1" s="20"/>
+      <c r="VJ1" s="20"/>
+      <c r="VK1" s="20"/>
+      <c r="VL1" s="20"/>
+      <c r="VM1" s="20"/>
+      <c r="VN1" s="20"/>
+      <c r="VO1" s="20"/>
+      <c r="VP1" s="20"/>
+      <c r="VQ1" s="20"/>
+      <c r="VR1" s="20"/>
+      <c r="VS1" s="20"/>
+      <c r="VT1" s="20"/>
+      <c r="VU1" s="20"/>
+      <c r="VV1" s="20"/>
+      <c r="VW1" s="20"/>
+      <c r="VX1" s="20"/>
+      <c r="VY1" s="20"/>
+      <c r="VZ1" s="20"/>
+      <c r="WA1" s="20"/>
+      <c r="WB1" s="20"/>
+      <c r="WC1" s="20"/>
+      <c r="WD1" s="20"/>
+      <c r="WE1" s="20"/>
+      <c r="WF1" s="20"/>
+      <c r="WG1" s="20"/>
+      <c r="WH1" s="20"/>
+      <c r="WI1" s="20"/>
+      <c r="WJ1" s="20"/>
+      <c r="WK1" s="20"/>
+      <c r="WL1" s="20"/>
+      <c r="WM1" s="20"/>
+      <c r="WN1" s="20"/>
+      <c r="WO1" s="20"/>
+      <c r="WP1" s="20"/>
+      <c r="WQ1" s="20"/>
+      <c r="WR1" s="20"/>
+      <c r="WS1" s="20"/>
+      <c r="WT1" s="20"/>
+      <c r="WU1" s="20"/>
+      <c r="WV1" s="20"/>
+      <c r="WW1" s="20"/>
+      <c r="WX1" s="20"/>
+      <c r="WY1" s="20"/>
+      <c r="WZ1" s="20"/>
+      <c r="XA1" s="20"/>
+      <c r="XB1" s="20"/>
+      <c r="XC1" s="20"/>
+      <c r="XD1" s="20"/>
+      <c r="XE1" s="20"/>
+      <c r="XF1" s="20"/>
+      <c r="XG1" s="20"/>
+      <c r="XH1" s="20"/>
+      <c r="XI1" s="20"/>
+      <c r="XJ1" s="20"/>
+      <c r="XK1" s="20"/>
+      <c r="XL1" s="20"/>
+      <c r="XM1" s="20"/>
+      <c r="XN1" s="20"/>
+      <c r="XO1" s="20"/>
+      <c r="XP1" s="20"/>
+      <c r="XQ1" s="20"/>
+      <c r="XR1" s="20"/>
+      <c r="XS1" s="21"/>
+      <c r="XT1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="XU1" s="22"/>
-      <c r="XV1" s="22"/>
-      <c r="XW1" s="22"/>
-      <c r="XX1" s="22"/>
-      <c r="XY1" s="22"/>
-      <c r="XZ1" s="22"/>
-      <c r="YA1" s="22"/>
-      <c r="YB1" s="22"/>
-      <c r="YC1" s="22"/>
-      <c r="YD1" s="22"/>
-      <c r="YE1" s="22"/>
-      <c r="YF1" s="22"/>
-      <c r="YG1" s="22"/>
-      <c r="YH1" s="22"/>
-      <c r="YI1" s="22"/>
-      <c r="YJ1" s="22"/>
-      <c r="YK1" s="22"/>
-      <c r="YL1" s="22"/>
-      <c r="YM1" s="22"/>
-      <c r="YN1" s="22"/>
-      <c r="YO1" s="22"/>
-      <c r="YP1" s="22"/>
-      <c r="YQ1" s="22"/>
-      <c r="YR1" s="22"/>
-      <c r="YS1" s="22"/>
-      <c r="YT1" s="22"/>
-      <c r="YU1" s="22"/>
-      <c r="YV1" s="22"/>
-      <c r="YW1" s="22"/>
-      <c r="YX1" s="22"/>
-      <c r="YY1" s="22"/>
-      <c r="YZ1" s="22"/>
-      <c r="ZA1" s="22"/>
-      <c r="ZB1" s="22"/>
-      <c r="ZC1" s="22"/>
-      <c r="ZD1" s="22"/>
-      <c r="ZE1" s="22"/>
-      <c r="ZF1" s="22"/>
-      <c r="ZG1" s="22"/>
-      <c r="ZH1" s="22"/>
-      <c r="ZI1" s="22"/>
-      <c r="ZJ1" s="22"/>
-      <c r="ZK1" s="22"/>
-      <c r="ZL1" s="22"/>
-      <c r="ZM1" s="22"/>
-      <c r="ZN1" s="22"/>
-      <c r="ZO1" s="22"/>
-      <c r="ZP1" s="22"/>
-      <c r="ZQ1" s="22"/>
-      <c r="ZR1" s="22"/>
-      <c r="ZS1" s="22"/>
-      <c r="ZT1" s="22"/>
-      <c r="ZU1" s="22"/>
-      <c r="ZV1" s="22"/>
-      <c r="ZW1" s="22"/>
-      <c r="ZX1" s="22"/>
-      <c r="ZY1" s="22"/>
-      <c r="ZZ1" s="22"/>
-      <c r="AAA1" s="22"/>
-      <c r="AAB1" s="22"/>
-      <c r="AAC1" s="22"/>
-      <c r="AAD1" s="22"/>
-      <c r="AAE1" s="22"/>
-      <c r="AAF1" s="22"/>
-      <c r="AAG1" s="22"/>
-      <c r="AAH1" s="22"/>
-      <c r="AAI1" s="22"/>
-      <c r="AAJ1" s="22"/>
-      <c r="AAK1" s="22"/>
-      <c r="AAL1" s="22"/>
-      <c r="AAM1" s="22"/>
-      <c r="AAN1" s="22"/>
-      <c r="AAO1" s="22"/>
-      <c r="AAP1" s="22"/>
-      <c r="AAQ1" s="22"/>
-      <c r="AAR1" s="22"/>
-      <c r="AAS1" s="22"/>
-      <c r="AAT1" s="22"/>
-      <c r="AAU1" s="22"/>
-      <c r="AAV1" s="22"/>
-      <c r="AAW1" s="22"/>
-      <c r="AAX1" s="22"/>
-      <c r="AAY1" s="22"/>
-      <c r="AAZ1" s="22"/>
-      <c r="ABA1" s="22"/>
-      <c r="ABB1" s="22"/>
-      <c r="ABC1" s="22"/>
-      <c r="ABD1" s="22"/>
-      <c r="ABE1" s="22"/>
-      <c r="ABF1" s="22"/>
-      <c r="ABG1" s="22"/>
-      <c r="ABH1" s="22"/>
-      <c r="ABI1" s="22"/>
-      <c r="ABJ1" s="22"/>
-      <c r="ABK1" s="22"/>
-      <c r="ABL1" s="22"/>
-      <c r="ABM1" s="22"/>
-      <c r="ABN1" s="22"/>
-      <c r="ABO1" s="22"/>
-      <c r="ABP1" s="22"/>
-      <c r="ABQ1" s="22"/>
-      <c r="ABR1" s="22"/>
-      <c r="ABS1" s="22"/>
-      <c r="ABT1" s="22"/>
-      <c r="ABU1" s="22"/>
-      <c r="ABV1" s="22"/>
-      <c r="ABW1" s="22"/>
-      <c r="ABX1" s="22"/>
-      <c r="ABY1" s="22"/>
-      <c r="ABZ1" s="22"/>
-      <c r="ACA1" s="22"/>
-      <c r="ACB1" s="22"/>
-      <c r="ACC1" s="22"/>
-      <c r="ACD1" s="22"/>
-      <c r="ACE1" s="22"/>
-      <c r="ACF1" s="22"/>
-      <c r="ACG1" s="22"/>
-      <c r="ACH1" s="22"/>
-      <c r="ACI1" s="22"/>
-      <c r="ACJ1" s="22"/>
-      <c r="ACK1" s="22"/>
-      <c r="ACL1" s="22"/>
-      <c r="ACM1" s="22"/>
-      <c r="ACN1" s="22"/>
-      <c r="ACO1" s="22"/>
-      <c r="ACP1" s="22"/>
-      <c r="ACQ1" s="23"/>
-      <c r="ACS1" s="24" t="s">
+      <c r="XU1" s="23"/>
+      <c r="XV1" s="23"/>
+      <c r="XW1" s="23"/>
+      <c r="XX1" s="23"/>
+      <c r="XY1" s="23"/>
+      <c r="XZ1" s="23"/>
+      <c r="YA1" s="23"/>
+      <c r="YB1" s="23"/>
+      <c r="YC1" s="23"/>
+      <c r="YD1" s="23"/>
+      <c r="YE1" s="23"/>
+      <c r="YF1" s="23"/>
+      <c r="YG1" s="23"/>
+      <c r="YH1" s="23"/>
+      <c r="YI1" s="23"/>
+      <c r="YJ1" s="23"/>
+      <c r="YK1" s="23"/>
+      <c r="YL1" s="23"/>
+      <c r="YM1" s="23"/>
+      <c r="YN1" s="23"/>
+      <c r="YO1" s="23"/>
+      <c r="YP1" s="23"/>
+      <c r="YQ1" s="23"/>
+      <c r="YR1" s="23"/>
+      <c r="YS1" s="23"/>
+      <c r="YT1" s="23"/>
+      <c r="YU1" s="23"/>
+      <c r="YV1" s="23"/>
+      <c r="YW1" s="23"/>
+      <c r="YX1" s="23"/>
+      <c r="YY1" s="23"/>
+      <c r="YZ1" s="23"/>
+      <c r="ZA1" s="23"/>
+      <c r="ZB1" s="23"/>
+      <c r="ZC1" s="23"/>
+      <c r="ZD1" s="23"/>
+      <c r="ZE1" s="23"/>
+      <c r="ZF1" s="23"/>
+      <c r="ZG1" s="23"/>
+      <c r="ZH1" s="23"/>
+      <c r="ZI1" s="23"/>
+      <c r="ZJ1" s="23"/>
+      <c r="ZK1" s="23"/>
+      <c r="ZL1" s="23"/>
+      <c r="ZM1" s="23"/>
+      <c r="ZN1" s="23"/>
+      <c r="ZO1" s="23"/>
+      <c r="ZP1" s="23"/>
+      <c r="ZQ1" s="23"/>
+      <c r="ZR1" s="23"/>
+      <c r="ZS1" s="23"/>
+      <c r="ZT1" s="23"/>
+      <c r="ZU1" s="23"/>
+      <c r="ZV1" s="23"/>
+      <c r="ZW1" s="23"/>
+      <c r="ZX1" s="23"/>
+      <c r="ZY1" s="23"/>
+      <c r="ZZ1" s="23"/>
+      <c r="AAA1" s="23"/>
+      <c r="AAB1" s="23"/>
+      <c r="AAC1" s="23"/>
+      <c r="AAD1" s="23"/>
+      <c r="AAE1" s="23"/>
+      <c r="AAF1" s="23"/>
+      <c r="AAG1" s="23"/>
+      <c r="AAH1" s="23"/>
+      <c r="AAI1" s="23"/>
+      <c r="AAJ1" s="23"/>
+      <c r="AAK1" s="23"/>
+      <c r="AAL1" s="23"/>
+      <c r="AAM1" s="23"/>
+      <c r="AAN1" s="23"/>
+      <c r="AAO1" s="23"/>
+      <c r="AAP1" s="23"/>
+      <c r="AAQ1" s="23"/>
+      <c r="AAR1" s="23"/>
+      <c r="AAS1" s="23"/>
+      <c r="AAT1" s="23"/>
+      <c r="AAU1" s="23"/>
+      <c r="AAV1" s="23"/>
+      <c r="AAW1" s="23"/>
+      <c r="AAX1" s="23"/>
+      <c r="AAY1" s="23"/>
+      <c r="AAZ1" s="23"/>
+      <c r="ABA1" s="23"/>
+      <c r="ABB1" s="23"/>
+      <c r="ABC1" s="23"/>
+      <c r="ABD1" s="23"/>
+      <c r="ABE1" s="23"/>
+      <c r="ABF1" s="23"/>
+      <c r="ABG1" s="23"/>
+      <c r="ABH1" s="23"/>
+      <c r="ABI1" s="23"/>
+      <c r="ABJ1" s="23"/>
+      <c r="ABK1" s="23"/>
+      <c r="ABL1" s="23"/>
+      <c r="ABM1" s="23"/>
+      <c r="ABN1" s="23"/>
+      <c r="ABO1" s="23"/>
+      <c r="ABP1" s="23"/>
+      <c r="ABQ1" s="23"/>
+      <c r="ABR1" s="23"/>
+      <c r="ABS1" s="23"/>
+      <c r="ABT1" s="23"/>
+      <c r="ABU1" s="23"/>
+      <c r="ABV1" s="23"/>
+      <c r="ABW1" s="23"/>
+      <c r="ABX1" s="23"/>
+      <c r="ABY1" s="23"/>
+      <c r="ABZ1" s="23"/>
+      <c r="ACA1" s="23"/>
+      <c r="ACB1" s="23"/>
+      <c r="ACC1" s="23"/>
+      <c r="ACD1" s="23"/>
+      <c r="ACE1" s="23"/>
+      <c r="ACF1" s="23"/>
+      <c r="ACG1" s="23"/>
+      <c r="ACH1" s="23"/>
+      <c r="ACI1" s="23"/>
+      <c r="ACJ1" s="23"/>
+      <c r="ACK1" s="23"/>
+      <c r="ACL1" s="23"/>
+      <c r="ACM1" s="23"/>
+      <c r="ACN1" s="23"/>
+      <c r="ACO1" s="23"/>
+      <c r="ACP1" s="23"/>
+      <c r="ACQ1" s="24"/>
+      <c r="ACS1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="ACT1" s="25"/>
-      <c r="ACU1" s="25"/>
-      <c r="ACV1" s="25"/>
-      <c r="ACW1" s="25"/>
-      <c r="ACX1" s="26"/>
+      <c r="ACT1" s="26"/>
+      <c r="ACU1" s="26"/>
+      <c r="ACV1" s="26"/>
+      <c r="ACW1" s="26"/>
+      <c r="ACX1" s="27"/>
     </row>
     <row r="2" spans="1:778" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
@@ -4961,3150 +5236,3620 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9D0570-45A7-4DC8-8F7D-C70B2D3C9092}">
-  <dimension ref="B3:ACQ643"/>
+  <dimension ref="B3:AFY642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" style="60" width="11.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="60" width="14.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="60" width="14.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="60" width="43.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="60" width="41.5" collapsed="true"/>
+    <col min="7" max="7" style="61" width="9.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="61" width="18.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="61" width="14.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="61" width="12.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="61" width="19.625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="60" width="7.25" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="60" width="10.625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="60" width="10.375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="60" width="20.875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="60" width="9.25" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="60" width="41.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="60" width="39.625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="60" width="24.75" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="60" width="9.25" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="60" width="18.25" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="60" width="12.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="60" width="19.125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="60" width="9.625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="60" width="8.25" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="60" width="19.375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="60" width="10.375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="60" width="20.625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="60" width="7.875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="62" width="11.75" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="62" width="12.5" collapsed="true"/>
+    <col min="32" max="39" customWidth="true" style="60" width="10.75" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="60" width="18.625" collapsed="true"/>
+    <col min="41" max="44" customWidth="true" style="60" width="10.75" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="60" width="21.125" collapsed="true"/>
+    <col min="46" max="61" customWidth="true" style="60" width="10.75" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="60" width="28.0" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" style="5" width="11.875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="5" width="25.5" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="63" width="40.375" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="64" width="28.5" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="60" width="14.0" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" style="60" width="23.25" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" style="60" width="34.125" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" style="64" width="24.0" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="60" width="13.25" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="60" width="23.625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="60" width="22.0" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" style="64" width="23.125" collapsed="true"/>
+    <col min="75" max="75" customWidth="true" style="60" width="14.625" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" style="60" width="24.375" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="60" width="20.625" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="64" width="20.5" collapsed="true"/>
+    <col min="79" max="79" customWidth="true" style="60" width="13.25" collapsed="true"/>
+    <col min="80" max="80" customWidth="true" style="60" width="22.125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" style="60" width="16.25" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="60" width="20.625" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="60" width="9.25" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="60" width="26.625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="60" width="15.25" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="60" width="8.5" collapsed="true"/>
+    <col min="87" max="87" customWidth="true" style="60" width="8.125" collapsed="true"/>
+    <col min="88" max="88" customWidth="true" style="60" width="24.5" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="65" width="17.5" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:778" s="8" customFormat="1" ht="12.75">
+    <row r="1" spans="1:864" s="8" customFormat="1" ht="12.75">
       <c r="A1" s="7"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="30"/>
+      <c r="CH1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI1" s="31"/>
+      <c r="CJ1" s="30"/>
+      <c r="CK1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="19"/>
-      <c r="BO1" s="19"/>
-      <c r="BP1" s="19"/>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="19"/>
-      <c r="BV1" s="19"/>
-      <c r="BW1" s="19"/>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="19"/>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="19"/>
-      <c r="CI1" s="19"/>
-      <c r="CJ1" s="19"/>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="19"/>
-      <c r="CM1" s="19"/>
-      <c r="CN1" s="19"/>
-      <c r="CO1" s="19"/>
-      <c r="CP1" s="19"/>
-      <c r="CQ1" s="19"/>
-      <c r="CR1" s="19"/>
-      <c r="CS1" s="19"/>
-      <c r="CT1" s="19"/>
-      <c r="CU1" s="19"/>
-      <c r="CV1" s="19"/>
-      <c r="CW1" s="19"/>
-      <c r="CX1" s="19"/>
-      <c r="CY1" s="19"/>
-      <c r="CZ1" s="19"/>
-      <c r="DA1" s="19"/>
-      <c r="DB1" s="19"/>
-      <c r="DC1" s="19"/>
-      <c r="DD1" s="19"/>
-      <c r="DE1" s="19"/>
-      <c r="DF1" s="19"/>
-      <c r="DG1" s="19"/>
-      <c r="DH1" s="19"/>
-      <c r="DI1" s="19"/>
-      <c r="DJ1" s="19"/>
-      <c r="DK1" s="19"/>
-      <c r="DL1" s="19"/>
-      <c r="DM1" s="19"/>
-      <c r="DN1" s="19"/>
-      <c r="DO1" s="19"/>
-      <c r="DP1" s="19"/>
-      <c r="DQ1" s="19"/>
-      <c r="DR1" s="19"/>
-      <c r="DS1" s="19"/>
-      <c r="DT1" s="19"/>
-      <c r="DU1" s="19"/>
-      <c r="DV1" s="19"/>
-      <c r="DW1" s="19"/>
-      <c r="DX1" s="19"/>
-      <c r="DY1" s="19"/>
-      <c r="DZ1" s="19"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
       <c r="EA1" s="20"/>
-      <c r="EB1" s="21" t="s">
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="20"/>
+      <c r="FN1" s="20"/>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="20"/>
+      <c r="GL1" s="20"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="21"/>
+      <c r="HJ1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="EC1" s="22"/>
-      <c r="ED1" s="22"/>
-      <c r="EE1" s="22"/>
-      <c r="EF1" s="22"/>
-      <c r="EG1" s="22"/>
-      <c r="EH1" s="22"/>
-      <c r="EI1" s="22"/>
-      <c r="EJ1" s="22"/>
-      <c r="EK1" s="22"/>
-      <c r="EL1" s="22"/>
-      <c r="EM1" s="22"/>
-      <c r="EN1" s="22"/>
-      <c r="EO1" s="22"/>
-      <c r="EP1" s="22"/>
-      <c r="EQ1" s="22"/>
-      <c r="ER1" s="22"/>
-      <c r="ES1" s="22"/>
-      <c r="ET1" s="22"/>
-      <c r="EU1" s="22"/>
-      <c r="EV1" s="22"/>
-      <c r="EW1" s="22"/>
-      <c r="EX1" s="22"/>
-      <c r="EY1" s="22"/>
-      <c r="EZ1" s="22"/>
-      <c r="FA1" s="22"/>
-      <c r="FB1" s="22"/>
-      <c r="FC1" s="22"/>
-      <c r="FD1" s="22"/>
-      <c r="FE1" s="22"/>
-      <c r="FF1" s="22"/>
-      <c r="FG1" s="22"/>
-      <c r="FH1" s="22"/>
-      <c r="FI1" s="22"/>
-      <c r="FJ1" s="22"/>
-      <c r="FK1" s="22"/>
-      <c r="FL1" s="22"/>
-      <c r="FM1" s="22"/>
-      <c r="FN1" s="22"/>
-      <c r="FO1" s="22"/>
-      <c r="FP1" s="22"/>
-      <c r="FQ1" s="22"/>
-      <c r="FR1" s="22"/>
-      <c r="FS1" s="22"/>
-      <c r="FT1" s="22"/>
-      <c r="FU1" s="22"/>
-      <c r="FV1" s="22"/>
-      <c r="FW1" s="22"/>
-      <c r="FX1" s="22"/>
-      <c r="FY1" s="22"/>
-      <c r="FZ1" s="22"/>
-      <c r="GA1" s="22"/>
-      <c r="GB1" s="22"/>
-      <c r="GC1" s="22"/>
-      <c r="GD1" s="22"/>
-      <c r="GE1" s="22"/>
-      <c r="GF1" s="22"/>
-      <c r="GG1" s="22"/>
-      <c r="GH1" s="22"/>
-      <c r="GI1" s="22"/>
-      <c r="GJ1" s="22"/>
-      <c r="GK1" s="22"/>
-      <c r="GL1" s="22"/>
-      <c r="GM1" s="22"/>
-      <c r="GN1" s="22"/>
-      <c r="GO1" s="22"/>
-      <c r="GP1" s="22"/>
-      <c r="GQ1" s="22"/>
-      <c r="GR1" s="22"/>
-      <c r="GS1" s="22"/>
-      <c r="GT1" s="22"/>
-      <c r="GU1" s="22"/>
-      <c r="GV1" s="22"/>
-      <c r="GW1" s="22"/>
-      <c r="GX1" s="22"/>
-      <c r="GY1" s="22"/>
-      <c r="GZ1" s="22"/>
-      <c r="HA1" s="22"/>
-      <c r="HB1" s="22"/>
-      <c r="HC1" s="22"/>
-      <c r="HD1" s="22"/>
-      <c r="HE1" s="22"/>
-      <c r="HF1" s="22"/>
-      <c r="HG1" s="22"/>
-      <c r="HH1" s="22"/>
-      <c r="HI1" s="22"/>
-      <c r="HJ1" s="22"/>
-      <c r="HK1" s="22"/>
-      <c r="HL1" s="22"/>
-      <c r="HM1" s="22"/>
-      <c r="HN1" s="22"/>
-      <c r="HO1" s="22"/>
-      <c r="HP1" s="22"/>
-      <c r="HQ1" s="22"/>
-      <c r="HR1" s="22"/>
-      <c r="HS1" s="22"/>
-      <c r="HT1" s="22"/>
-      <c r="HU1" s="22"/>
-      <c r="HV1" s="22"/>
-      <c r="HW1" s="22"/>
-      <c r="HX1" s="22"/>
-      <c r="HY1" s="22"/>
-      <c r="HZ1" s="22"/>
-      <c r="IA1" s="22"/>
-      <c r="IB1" s="22"/>
-      <c r="IC1" s="22"/>
-      <c r="ID1" s="22"/>
-      <c r="IE1" s="22"/>
-      <c r="IF1" s="22"/>
-      <c r="IG1" s="22"/>
-      <c r="IH1" s="22"/>
-      <c r="II1" s="22"/>
-      <c r="IJ1" s="22"/>
-      <c r="IK1" s="22"/>
-      <c r="IL1" s="22"/>
-      <c r="IM1" s="22"/>
-      <c r="IN1" s="22"/>
-      <c r="IO1" s="22"/>
-      <c r="IP1" s="22"/>
-      <c r="IQ1" s="22"/>
-      <c r="IR1" s="22"/>
-      <c r="IS1" s="22"/>
-      <c r="IT1" s="22"/>
-      <c r="IU1" s="22"/>
-      <c r="IV1" s="22"/>
-      <c r="IW1" s="22"/>
-      <c r="IX1" s="22"/>
+      <c r="HK1" s="23"/>
+      <c r="HL1" s="23"/>
+      <c r="HM1" s="23"/>
+      <c r="HN1" s="23"/>
+      <c r="HO1" s="23"/>
+      <c r="HP1" s="23"/>
+      <c r="HQ1" s="23"/>
+      <c r="HR1" s="23"/>
+      <c r="HS1" s="23"/>
+      <c r="HT1" s="23"/>
+      <c r="HU1" s="23"/>
+      <c r="HV1" s="23"/>
+      <c r="HW1" s="23"/>
+      <c r="HX1" s="23"/>
+      <c r="HY1" s="23"/>
+      <c r="HZ1" s="23"/>
+      <c r="IA1" s="23"/>
+      <c r="IB1" s="23"/>
+      <c r="IC1" s="23"/>
+      <c r="ID1" s="23"/>
+      <c r="IE1" s="23"/>
+      <c r="IF1" s="23"/>
+      <c r="IG1" s="23"/>
+      <c r="IH1" s="23"/>
+      <c r="II1" s="23"/>
+      <c r="IJ1" s="23"/>
+      <c r="IK1" s="23"/>
+      <c r="IL1" s="23"/>
+      <c r="IM1" s="23"/>
+      <c r="IN1" s="23"/>
+      <c r="IO1" s="23"/>
+      <c r="IP1" s="23"/>
+      <c r="IQ1" s="23"/>
+      <c r="IR1" s="23"/>
+      <c r="IS1" s="23"/>
+      <c r="IT1" s="23"/>
+      <c r="IU1" s="23"/>
+      <c r="IV1" s="23"/>
+      <c r="IW1" s="23"/>
+      <c r="IX1" s="23"/>
       <c r="IY1" s="23"/>
-      <c r="IZ1" s="18" t="s">
+      <c r="IZ1" s="23"/>
+      <c r="JA1" s="23"/>
+      <c r="JB1" s="23"/>
+      <c r="JC1" s="23"/>
+      <c r="JD1" s="23"/>
+      <c r="JE1" s="23"/>
+      <c r="JF1" s="23"/>
+      <c r="JG1" s="23"/>
+      <c r="JH1" s="23"/>
+      <c r="JI1" s="23"/>
+      <c r="JJ1" s="23"/>
+      <c r="JK1" s="23"/>
+      <c r="JL1" s="23"/>
+      <c r="JM1" s="23"/>
+      <c r="JN1" s="23"/>
+      <c r="JO1" s="23"/>
+      <c r="JP1" s="23"/>
+      <c r="JQ1" s="23"/>
+      <c r="JR1" s="23"/>
+      <c r="JS1" s="23"/>
+      <c r="JT1" s="23"/>
+      <c r="JU1" s="23"/>
+      <c r="JV1" s="23"/>
+      <c r="JW1" s="23"/>
+      <c r="JX1" s="23"/>
+      <c r="JY1" s="23"/>
+      <c r="JZ1" s="23"/>
+      <c r="KA1" s="23"/>
+      <c r="KB1" s="23"/>
+      <c r="KC1" s="23"/>
+      <c r="KD1" s="23"/>
+      <c r="KE1" s="23"/>
+      <c r="KF1" s="23"/>
+      <c r="KG1" s="23"/>
+      <c r="KH1" s="23"/>
+      <c r="KI1" s="23"/>
+      <c r="KJ1" s="23"/>
+      <c r="KK1" s="23"/>
+      <c r="KL1" s="23"/>
+      <c r="KM1" s="23"/>
+      <c r="KN1" s="23"/>
+      <c r="KO1" s="23"/>
+      <c r="KP1" s="23"/>
+      <c r="KQ1" s="23"/>
+      <c r="KR1" s="23"/>
+      <c r="KS1" s="23"/>
+      <c r="KT1" s="23"/>
+      <c r="KU1" s="23"/>
+      <c r="KV1" s="23"/>
+      <c r="KW1" s="23"/>
+      <c r="KX1" s="23"/>
+      <c r="KY1" s="23"/>
+      <c r="KZ1" s="23"/>
+      <c r="LA1" s="23"/>
+      <c r="LB1" s="23"/>
+      <c r="LC1" s="23"/>
+      <c r="LD1" s="23"/>
+      <c r="LE1" s="23"/>
+      <c r="LF1" s="23"/>
+      <c r="LG1" s="23"/>
+      <c r="LH1" s="23"/>
+      <c r="LI1" s="23"/>
+      <c r="LJ1" s="23"/>
+      <c r="LK1" s="23"/>
+      <c r="LL1" s="23"/>
+      <c r="LM1" s="23"/>
+      <c r="LN1" s="23"/>
+      <c r="LO1" s="23"/>
+      <c r="LP1" s="23"/>
+      <c r="LQ1" s="23"/>
+      <c r="LR1" s="23"/>
+      <c r="LS1" s="23"/>
+      <c r="LT1" s="23"/>
+      <c r="LU1" s="23"/>
+      <c r="LV1" s="23"/>
+      <c r="LW1" s="23"/>
+      <c r="LX1" s="23"/>
+      <c r="LY1" s="23"/>
+      <c r="LZ1" s="23"/>
+      <c r="MA1" s="23"/>
+      <c r="MB1" s="23"/>
+      <c r="MC1" s="23"/>
+      <c r="MD1" s="23"/>
+      <c r="ME1" s="23"/>
+      <c r="MF1" s="23"/>
+      <c r="MG1" s="24"/>
+      <c r="MH1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="JA1" s="19"/>
-      <c r="JB1" s="19"/>
-      <c r="JC1" s="19"/>
-      <c r="JD1" s="19"/>
-      <c r="JE1" s="19"/>
-      <c r="JF1" s="19"/>
-      <c r="JG1" s="19"/>
-      <c r="JH1" s="19"/>
-      <c r="JI1" s="19"/>
-      <c r="JJ1" s="19"/>
-      <c r="JK1" s="19"/>
-      <c r="JL1" s="19"/>
-      <c r="JM1" s="19"/>
-      <c r="JN1" s="19"/>
-      <c r="JO1" s="19"/>
-      <c r="JP1" s="19"/>
-      <c r="JQ1" s="19"/>
-      <c r="JR1" s="19"/>
-      <c r="JS1" s="19"/>
-      <c r="JT1" s="19"/>
-      <c r="JU1" s="19"/>
-      <c r="JV1" s="19"/>
-      <c r="JW1" s="19"/>
-      <c r="JX1" s="19"/>
-      <c r="JY1" s="19"/>
-      <c r="JZ1" s="19"/>
-      <c r="KA1" s="19"/>
-      <c r="KB1" s="19"/>
-      <c r="KC1" s="19"/>
-      <c r="KD1" s="19"/>
-      <c r="KE1" s="19"/>
-      <c r="KF1" s="19"/>
-      <c r="KG1" s="19"/>
-      <c r="KH1" s="19"/>
-      <c r="KI1" s="19"/>
-      <c r="KJ1" s="19"/>
-      <c r="KK1" s="19"/>
-      <c r="KL1" s="19"/>
-      <c r="KM1" s="19"/>
-      <c r="KN1" s="19"/>
-      <c r="KO1" s="19"/>
-      <c r="KP1" s="19"/>
-      <c r="KQ1" s="19"/>
-      <c r="KR1" s="19"/>
-      <c r="KS1" s="19"/>
-      <c r="KT1" s="19"/>
-      <c r="KU1" s="19"/>
-      <c r="KV1" s="19"/>
-      <c r="KW1" s="19"/>
-      <c r="KX1" s="19"/>
-      <c r="KY1" s="19"/>
-      <c r="KZ1" s="19"/>
-      <c r="LA1" s="19"/>
-      <c r="LB1" s="19"/>
-      <c r="LC1" s="19"/>
-      <c r="LD1" s="19"/>
-      <c r="LE1" s="19"/>
-      <c r="LF1" s="19"/>
-      <c r="LG1" s="19"/>
-      <c r="LH1" s="19"/>
-      <c r="LI1" s="19"/>
-      <c r="LJ1" s="19"/>
-      <c r="LK1" s="19"/>
-      <c r="LL1" s="19"/>
-      <c r="LM1" s="19"/>
-      <c r="LN1" s="19"/>
-      <c r="LO1" s="19"/>
-      <c r="LP1" s="19"/>
-      <c r="LQ1" s="19"/>
-      <c r="LR1" s="19"/>
-      <c r="LS1" s="19"/>
-      <c r="LT1" s="19"/>
-      <c r="LU1" s="19"/>
-      <c r="LV1" s="19"/>
-      <c r="LW1" s="19"/>
-      <c r="LX1" s="19"/>
-      <c r="LY1" s="19"/>
-      <c r="LZ1" s="19"/>
-      <c r="MA1" s="19"/>
-      <c r="MB1" s="19"/>
-      <c r="MC1" s="19"/>
-      <c r="MD1" s="19"/>
-      <c r="ME1" s="19"/>
-      <c r="MF1" s="19"/>
-      <c r="MG1" s="19"/>
-      <c r="MH1" s="19"/>
-      <c r="MI1" s="19"/>
-      <c r="MJ1" s="19"/>
-      <c r="MK1" s="19"/>
-      <c r="ML1" s="19"/>
-      <c r="MM1" s="19"/>
-      <c r="MN1" s="19"/>
-      <c r="MO1" s="19"/>
-      <c r="MP1" s="19"/>
-      <c r="MQ1" s="19"/>
-      <c r="MR1" s="19"/>
-      <c r="MS1" s="19"/>
-      <c r="MT1" s="19"/>
-      <c r="MU1" s="19"/>
-      <c r="MV1" s="19"/>
-      <c r="MW1" s="19"/>
-      <c r="MX1" s="19"/>
-      <c r="MY1" s="19"/>
-      <c r="MZ1" s="19"/>
-      <c r="NA1" s="19"/>
-      <c r="NB1" s="19"/>
-      <c r="NC1" s="19"/>
-      <c r="ND1" s="19"/>
-      <c r="NE1" s="19"/>
-      <c r="NF1" s="19"/>
-      <c r="NG1" s="19"/>
-      <c r="NH1" s="19"/>
-      <c r="NI1" s="19"/>
-      <c r="NJ1" s="19"/>
-      <c r="NK1" s="19"/>
-      <c r="NL1" s="19"/>
-      <c r="NM1" s="19"/>
-      <c r="NN1" s="19"/>
-      <c r="NO1" s="19"/>
-      <c r="NP1" s="19"/>
-      <c r="NQ1" s="19"/>
-      <c r="NR1" s="19"/>
-      <c r="NS1" s="19"/>
-      <c r="NT1" s="19"/>
-      <c r="NU1" s="19"/>
-      <c r="NV1" s="19"/>
+      <c r="MI1" s="20"/>
+      <c r="MJ1" s="20"/>
+      <c r="MK1" s="20"/>
+      <c r="ML1" s="20"/>
+      <c r="MM1" s="20"/>
+      <c r="MN1" s="20"/>
+      <c r="MO1" s="20"/>
+      <c r="MP1" s="20"/>
+      <c r="MQ1" s="20"/>
+      <c r="MR1" s="20"/>
+      <c r="MS1" s="20"/>
+      <c r="MT1" s="20"/>
+      <c r="MU1" s="20"/>
+      <c r="MV1" s="20"/>
+      <c r="MW1" s="20"/>
+      <c r="MX1" s="20"/>
+      <c r="MY1" s="20"/>
+      <c r="MZ1" s="20"/>
+      <c r="NA1" s="20"/>
+      <c r="NB1" s="20"/>
+      <c r="NC1" s="20"/>
+      <c r="ND1" s="20"/>
+      <c r="NE1" s="20"/>
+      <c r="NF1" s="20"/>
+      <c r="NG1" s="20"/>
+      <c r="NH1" s="20"/>
+      <c r="NI1" s="20"/>
+      <c r="NJ1" s="20"/>
+      <c r="NK1" s="20"/>
+      <c r="NL1" s="20"/>
+      <c r="NM1" s="20"/>
+      <c r="NN1" s="20"/>
+      <c r="NO1" s="20"/>
+      <c r="NP1" s="20"/>
+      <c r="NQ1" s="20"/>
+      <c r="NR1" s="20"/>
+      <c r="NS1" s="20"/>
+      <c r="NT1" s="20"/>
+      <c r="NU1" s="20"/>
+      <c r="NV1" s="20"/>
       <c r="NW1" s="20"/>
-      <c r="NX1" s="21" t="s">
+      <c r="NX1" s="20"/>
+      <c r="NY1" s="20"/>
+      <c r="NZ1" s="20"/>
+      <c r="OA1" s="20"/>
+      <c r="OB1" s="20"/>
+      <c r="OC1" s="20"/>
+      <c r="OD1" s="20"/>
+      <c r="OE1" s="20"/>
+      <c r="OF1" s="20"/>
+      <c r="OG1" s="20"/>
+      <c r="OH1" s="20"/>
+      <c r="OI1" s="20"/>
+      <c r="OJ1" s="20"/>
+      <c r="OK1" s="20"/>
+      <c r="OL1" s="20"/>
+      <c r="OM1" s="20"/>
+      <c r="ON1" s="20"/>
+      <c r="OO1" s="20"/>
+      <c r="OP1" s="20"/>
+      <c r="OQ1" s="20"/>
+      <c r="OR1" s="20"/>
+      <c r="OS1" s="20"/>
+      <c r="OT1" s="20"/>
+      <c r="OU1" s="20"/>
+      <c r="OV1" s="20"/>
+      <c r="OW1" s="20"/>
+      <c r="OX1" s="20"/>
+      <c r="OY1" s="20"/>
+      <c r="OZ1" s="20"/>
+      <c r="PA1" s="20"/>
+      <c r="PB1" s="20"/>
+      <c r="PC1" s="20"/>
+      <c r="PD1" s="20"/>
+      <c r="PE1" s="20"/>
+      <c r="PF1" s="20"/>
+      <c r="PG1" s="20"/>
+      <c r="PH1" s="20"/>
+      <c r="PI1" s="20"/>
+      <c r="PJ1" s="20"/>
+      <c r="PK1" s="20"/>
+      <c r="PL1" s="20"/>
+      <c r="PM1" s="20"/>
+      <c r="PN1" s="20"/>
+      <c r="PO1" s="20"/>
+      <c r="PP1" s="20"/>
+      <c r="PQ1" s="20"/>
+      <c r="PR1" s="20"/>
+      <c r="PS1" s="20"/>
+      <c r="PT1" s="20"/>
+      <c r="PU1" s="20"/>
+      <c r="PV1" s="20"/>
+      <c r="PW1" s="20"/>
+      <c r="PX1" s="20"/>
+      <c r="PY1" s="20"/>
+      <c r="PZ1" s="20"/>
+      <c r="QA1" s="20"/>
+      <c r="QB1" s="20"/>
+      <c r="QC1" s="20"/>
+      <c r="QD1" s="20"/>
+      <c r="QE1" s="20"/>
+      <c r="QF1" s="20"/>
+      <c r="QG1" s="20"/>
+      <c r="QH1" s="20"/>
+      <c r="QI1" s="20"/>
+      <c r="QJ1" s="20"/>
+      <c r="QK1" s="20"/>
+      <c r="QL1" s="20"/>
+      <c r="QM1" s="20"/>
+      <c r="QN1" s="20"/>
+      <c r="QO1" s="20"/>
+      <c r="QP1" s="20"/>
+      <c r="QQ1" s="20"/>
+      <c r="QR1" s="20"/>
+      <c r="QS1" s="20"/>
+      <c r="QT1" s="20"/>
+      <c r="QU1" s="20"/>
+      <c r="QV1" s="20"/>
+      <c r="QW1" s="20"/>
+      <c r="QX1" s="20"/>
+      <c r="QY1" s="20"/>
+      <c r="QZ1" s="20"/>
+      <c r="RA1" s="20"/>
+      <c r="RB1" s="20"/>
+      <c r="RC1" s="20"/>
+      <c r="RD1" s="20"/>
+      <c r="RE1" s="21"/>
+      <c r="RF1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="NY1" s="22"/>
-      <c r="NZ1" s="22"/>
-      <c r="OA1" s="22"/>
-      <c r="OB1" s="22"/>
-      <c r="OC1" s="22"/>
-      <c r="OD1" s="22"/>
-      <c r="OE1" s="22"/>
-      <c r="OF1" s="22"/>
-      <c r="OG1" s="22"/>
-      <c r="OH1" s="22"/>
-      <c r="OI1" s="22"/>
-      <c r="OJ1" s="22"/>
-      <c r="OK1" s="22"/>
-      <c r="OL1" s="22"/>
-      <c r="OM1" s="22"/>
-      <c r="ON1" s="22"/>
-      <c r="OO1" s="22"/>
-      <c r="OP1" s="22"/>
-      <c r="OQ1" s="22"/>
-      <c r="OR1" s="22"/>
-      <c r="OS1" s="22"/>
-      <c r="OT1" s="22"/>
-      <c r="OU1" s="22"/>
-      <c r="OV1" s="22"/>
-      <c r="OW1" s="22"/>
-      <c r="OX1" s="22"/>
-      <c r="OY1" s="22"/>
-      <c r="OZ1" s="22"/>
-      <c r="PA1" s="22"/>
-      <c r="PB1" s="22"/>
-      <c r="PC1" s="22"/>
-      <c r="PD1" s="22"/>
-      <c r="PE1" s="22"/>
-      <c r="PF1" s="22"/>
-      <c r="PG1" s="22"/>
-      <c r="PH1" s="22"/>
-      <c r="PI1" s="22"/>
-      <c r="PJ1" s="22"/>
-      <c r="PK1" s="22"/>
-      <c r="PL1" s="22"/>
-      <c r="PM1" s="22"/>
-      <c r="PN1" s="22"/>
-      <c r="PO1" s="22"/>
-      <c r="PP1" s="22"/>
-      <c r="PQ1" s="22"/>
-      <c r="PR1" s="22"/>
-      <c r="PS1" s="22"/>
-      <c r="PT1" s="22"/>
-      <c r="PU1" s="22"/>
-      <c r="PV1" s="22"/>
-      <c r="PW1" s="22"/>
-      <c r="PX1" s="22"/>
-      <c r="PY1" s="22"/>
-      <c r="PZ1" s="22"/>
-      <c r="QA1" s="22"/>
-      <c r="QB1" s="22"/>
-      <c r="QC1" s="22"/>
-      <c r="QD1" s="22"/>
-      <c r="QE1" s="22"/>
-      <c r="QF1" s="22"/>
-      <c r="QG1" s="22"/>
-      <c r="QH1" s="22"/>
-      <c r="QI1" s="22"/>
-      <c r="QJ1" s="22"/>
-      <c r="QK1" s="22"/>
-      <c r="QL1" s="22"/>
-      <c r="QM1" s="22"/>
-      <c r="QN1" s="22"/>
-      <c r="QO1" s="22"/>
-      <c r="QP1" s="22"/>
-      <c r="QQ1" s="22"/>
-      <c r="QR1" s="22"/>
-      <c r="QS1" s="22"/>
-      <c r="QT1" s="22"/>
-      <c r="QU1" s="22"/>
-      <c r="QV1" s="22"/>
-      <c r="QW1" s="22"/>
-      <c r="QX1" s="22"/>
-      <c r="QY1" s="22"/>
-      <c r="QZ1" s="22"/>
-      <c r="RA1" s="22"/>
-      <c r="RB1" s="22"/>
-      <c r="RC1" s="22"/>
-      <c r="RD1" s="22"/>
-      <c r="RE1" s="22"/>
-      <c r="RF1" s="22"/>
-      <c r="RG1" s="22"/>
-      <c r="RH1" s="22"/>
-      <c r="RI1" s="22"/>
-      <c r="RJ1" s="22"/>
-      <c r="RK1" s="22"/>
-      <c r="RL1" s="22"/>
-      <c r="RM1" s="22"/>
-      <c r="RN1" s="22"/>
-      <c r="RO1" s="22"/>
-      <c r="RP1" s="22"/>
-      <c r="RQ1" s="22"/>
-      <c r="RR1" s="22"/>
-      <c r="RS1" s="22"/>
-      <c r="RT1" s="22"/>
-      <c r="RU1" s="22"/>
-      <c r="RV1" s="22"/>
-      <c r="RW1" s="22"/>
-      <c r="RX1" s="22"/>
-      <c r="RY1" s="22"/>
-      <c r="RZ1" s="22"/>
-      <c r="SA1" s="22"/>
-      <c r="SB1" s="22"/>
-      <c r="SC1" s="22"/>
-      <c r="SD1" s="22"/>
-      <c r="SE1" s="22"/>
-      <c r="SF1" s="22"/>
-      <c r="SG1" s="22"/>
-      <c r="SH1" s="22"/>
-      <c r="SI1" s="22"/>
-      <c r="SJ1" s="22"/>
-      <c r="SK1" s="22"/>
-      <c r="SL1" s="22"/>
-      <c r="SM1" s="22"/>
-      <c r="SN1" s="22"/>
-      <c r="SO1" s="22"/>
-      <c r="SP1" s="22"/>
-      <c r="SQ1" s="22"/>
-      <c r="SR1" s="22"/>
-      <c r="SS1" s="22"/>
-      <c r="ST1" s="22"/>
+      <c r="RG1" s="23"/>
+      <c r="RH1" s="23"/>
+      <c r="RI1" s="23"/>
+      <c r="RJ1" s="23"/>
+      <c r="RK1" s="23"/>
+      <c r="RL1" s="23"/>
+      <c r="RM1" s="23"/>
+      <c r="RN1" s="23"/>
+      <c r="RO1" s="23"/>
+      <c r="RP1" s="23"/>
+      <c r="RQ1" s="23"/>
+      <c r="RR1" s="23"/>
+      <c r="RS1" s="23"/>
+      <c r="RT1" s="23"/>
+      <c r="RU1" s="23"/>
+      <c r="RV1" s="23"/>
+      <c r="RW1" s="23"/>
+      <c r="RX1" s="23"/>
+      <c r="RY1" s="23"/>
+      <c r="RZ1" s="23"/>
+      <c r="SA1" s="23"/>
+      <c r="SB1" s="23"/>
+      <c r="SC1" s="23"/>
+      <c r="SD1" s="23"/>
+      <c r="SE1" s="23"/>
+      <c r="SF1" s="23"/>
+      <c r="SG1" s="23"/>
+      <c r="SH1" s="23"/>
+      <c r="SI1" s="23"/>
+      <c r="SJ1" s="23"/>
+      <c r="SK1" s="23"/>
+      <c r="SL1" s="23"/>
+      <c r="SM1" s="23"/>
+      <c r="SN1" s="23"/>
+      <c r="SO1" s="23"/>
+      <c r="SP1" s="23"/>
+      <c r="SQ1" s="23"/>
+      <c r="SR1" s="23"/>
+      <c r="SS1" s="23"/>
+      <c r="ST1" s="23"/>
       <c r="SU1" s="23"/>
-      <c r="SV1" s="18" t="s">
+      <c r="SV1" s="23"/>
+      <c r="SW1" s="23"/>
+      <c r="SX1" s="23"/>
+      <c r="SY1" s="23"/>
+      <c r="SZ1" s="23"/>
+      <c r="TA1" s="23"/>
+      <c r="TB1" s="23"/>
+      <c r="TC1" s="23"/>
+      <c r="TD1" s="23"/>
+      <c r="TE1" s="23"/>
+      <c r="TF1" s="23"/>
+      <c r="TG1" s="23"/>
+      <c r="TH1" s="23"/>
+      <c r="TI1" s="23"/>
+      <c r="TJ1" s="23"/>
+      <c r="TK1" s="23"/>
+      <c r="TL1" s="23"/>
+      <c r="TM1" s="23"/>
+      <c r="TN1" s="23"/>
+      <c r="TO1" s="23"/>
+      <c r="TP1" s="23"/>
+      <c r="TQ1" s="23"/>
+      <c r="TR1" s="23"/>
+      <c r="TS1" s="23"/>
+      <c r="TT1" s="23"/>
+      <c r="TU1" s="23"/>
+      <c r="TV1" s="23"/>
+      <c r="TW1" s="23"/>
+      <c r="TX1" s="23"/>
+      <c r="TY1" s="23"/>
+      <c r="TZ1" s="23"/>
+      <c r="UA1" s="23"/>
+      <c r="UB1" s="23"/>
+      <c r="UC1" s="23"/>
+      <c r="UD1" s="23"/>
+      <c r="UE1" s="23"/>
+      <c r="UF1" s="23"/>
+      <c r="UG1" s="23"/>
+      <c r="UH1" s="23"/>
+      <c r="UI1" s="23"/>
+      <c r="UJ1" s="23"/>
+      <c r="UK1" s="23"/>
+      <c r="UL1" s="23"/>
+      <c r="UM1" s="23"/>
+      <c r="UN1" s="23"/>
+      <c r="UO1" s="23"/>
+      <c r="UP1" s="23"/>
+      <c r="UQ1" s="23"/>
+      <c r="UR1" s="23"/>
+      <c r="US1" s="23"/>
+      <c r="UT1" s="23"/>
+      <c r="UU1" s="23"/>
+      <c r="UV1" s="23"/>
+      <c r="UW1" s="23"/>
+      <c r="UX1" s="23"/>
+      <c r="UY1" s="23"/>
+      <c r="UZ1" s="23"/>
+      <c r="VA1" s="23"/>
+      <c r="VB1" s="23"/>
+      <c r="VC1" s="23"/>
+      <c r="VD1" s="23"/>
+      <c r="VE1" s="23"/>
+      <c r="VF1" s="23"/>
+      <c r="VG1" s="23"/>
+      <c r="VH1" s="23"/>
+      <c r="VI1" s="23"/>
+      <c r="VJ1" s="23"/>
+      <c r="VK1" s="23"/>
+      <c r="VL1" s="23"/>
+      <c r="VM1" s="23"/>
+      <c r="VN1" s="23"/>
+      <c r="VO1" s="23"/>
+      <c r="VP1" s="23"/>
+      <c r="VQ1" s="23"/>
+      <c r="VR1" s="23"/>
+      <c r="VS1" s="23"/>
+      <c r="VT1" s="23"/>
+      <c r="VU1" s="23"/>
+      <c r="VV1" s="23"/>
+      <c r="VW1" s="23"/>
+      <c r="VX1" s="23"/>
+      <c r="VY1" s="23"/>
+      <c r="VZ1" s="23"/>
+      <c r="WA1" s="23"/>
+      <c r="WB1" s="23"/>
+      <c r="WC1" s="24"/>
+      <c r="WD1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="SW1" s="19"/>
-      <c r="SX1" s="19"/>
-      <c r="SY1" s="19"/>
-      <c r="SZ1" s="19"/>
-      <c r="TA1" s="19"/>
-      <c r="TB1" s="19"/>
-      <c r="TC1" s="19"/>
-      <c r="TD1" s="19"/>
-      <c r="TE1" s="19"/>
-      <c r="TF1" s="19"/>
-      <c r="TG1" s="19"/>
-      <c r="TH1" s="19"/>
-      <c r="TI1" s="19"/>
-      <c r="TJ1" s="19"/>
-      <c r="TK1" s="19"/>
-      <c r="TL1" s="19"/>
-      <c r="TM1" s="19"/>
-      <c r="TN1" s="19"/>
-      <c r="TO1" s="19"/>
-      <c r="TP1" s="19"/>
-      <c r="TQ1" s="19"/>
-      <c r="TR1" s="19"/>
-      <c r="TS1" s="19"/>
-      <c r="TT1" s="19"/>
-      <c r="TU1" s="19"/>
-      <c r="TV1" s="19"/>
-      <c r="TW1" s="19"/>
-      <c r="TX1" s="19"/>
-      <c r="TY1" s="19"/>
-      <c r="TZ1" s="19"/>
-      <c r="UA1" s="19"/>
-      <c r="UB1" s="19"/>
-      <c r="UC1" s="19"/>
-      <c r="UD1" s="19"/>
-      <c r="UE1" s="19"/>
-      <c r="UF1" s="19"/>
-      <c r="UG1" s="19"/>
-      <c r="UH1" s="19"/>
-      <c r="UI1" s="19"/>
-      <c r="UJ1" s="19"/>
-      <c r="UK1" s="19"/>
-      <c r="UL1" s="19"/>
-      <c r="UM1" s="19"/>
-      <c r="UN1" s="19"/>
-      <c r="UO1" s="19"/>
-      <c r="UP1" s="19"/>
-      <c r="UQ1" s="19"/>
-      <c r="UR1" s="19"/>
-      <c r="US1" s="19"/>
-      <c r="UT1" s="19"/>
-      <c r="UU1" s="19"/>
-      <c r="UV1" s="19"/>
-      <c r="UW1" s="19"/>
-      <c r="UX1" s="19"/>
-      <c r="UY1" s="19"/>
-      <c r="UZ1" s="19"/>
-      <c r="VA1" s="19"/>
-      <c r="VB1" s="19"/>
-      <c r="VC1" s="19"/>
-      <c r="VD1" s="19"/>
-      <c r="VE1" s="19"/>
-      <c r="VF1" s="19"/>
-      <c r="VG1" s="19"/>
-      <c r="VH1" s="19"/>
-      <c r="VI1" s="19"/>
-      <c r="VJ1" s="19"/>
-      <c r="VK1" s="19"/>
-      <c r="VL1" s="19"/>
-      <c r="VM1" s="19"/>
-      <c r="VN1" s="19"/>
-      <c r="VO1" s="19"/>
-      <c r="VP1" s="19"/>
-      <c r="VQ1" s="19"/>
-      <c r="VR1" s="19"/>
-      <c r="VS1" s="19"/>
-      <c r="VT1" s="19"/>
-      <c r="VU1" s="19"/>
-      <c r="VV1" s="19"/>
-      <c r="VW1" s="19"/>
-      <c r="VX1" s="19"/>
-      <c r="VY1" s="19"/>
-      <c r="VZ1" s="19"/>
-      <c r="WA1" s="19"/>
-      <c r="WB1" s="19"/>
-      <c r="WC1" s="19"/>
-      <c r="WD1" s="19"/>
-      <c r="WE1" s="19"/>
-      <c r="WF1" s="19"/>
-      <c r="WG1" s="19"/>
-      <c r="WH1" s="19"/>
-      <c r="WI1" s="19"/>
-      <c r="WJ1" s="19"/>
-      <c r="WK1" s="19"/>
-      <c r="WL1" s="19"/>
-      <c r="WM1" s="19"/>
-      <c r="WN1" s="19"/>
-      <c r="WO1" s="19"/>
-      <c r="WP1" s="19"/>
-      <c r="WQ1" s="19"/>
-      <c r="WR1" s="19"/>
-      <c r="WS1" s="19"/>
-      <c r="WT1" s="19"/>
-      <c r="WU1" s="19"/>
-      <c r="WV1" s="19"/>
-      <c r="WW1" s="19"/>
-      <c r="WX1" s="19"/>
-      <c r="WY1" s="19"/>
-      <c r="WZ1" s="19"/>
-      <c r="XA1" s="19"/>
-      <c r="XB1" s="19"/>
-      <c r="XC1" s="19"/>
-      <c r="XD1" s="19"/>
-      <c r="XE1" s="19"/>
-      <c r="XF1" s="19"/>
-      <c r="XG1" s="19"/>
-      <c r="XH1" s="19"/>
-      <c r="XI1" s="19"/>
-      <c r="XJ1" s="19"/>
-      <c r="XK1" s="19"/>
-      <c r="XL1" s="19"/>
-      <c r="XM1" s="19"/>
-      <c r="XN1" s="19"/>
-      <c r="XO1" s="19"/>
-      <c r="XP1" s="19"/>
-      <c r="XQ1" s="19"/>
-      <c r="XR1" s="19"/>
+      <c r="WE1" s="20"/>
+      <c r="WF1" s="20"/>
+      <c r="WG1" s="20"/>
+      <c r="WH1" s="20"/>
+      <c r="WI1" s="20"/>
+      <c r="WJ1" s="20"/>
+      <c r="WK1" s="20"/>
+      <c r="WL1" s="20"/>
+      <c r="WM1" s="20"/>
+      <c r="WN1" s="20"/>
+      <c r="WO1" s="20"/>
+      <c r="WP1" s="20"/>
+      <c r="WQ1" s="20"/>
+      <c r="WR1" s="20"/>
+      <c r="WS1" s="20"/>
+      <c r="WT1" s="20"/>
+      <c r="WU1" s="20"/>
+      <c r="WV1" s="20"/>
+      <c r="WW1" s="20"/>
+      <c r="WX1" s="20"/>
+      <c r="WY1" s="20"/>
+      <c r="WZ1" s="20"/>
+      <c r="XA1" s="20"/>
+      <c r="XB1" s="20"/>
+      <c r="XC1" s="20"/>
+      <c r="XD1" s="20"/>
+      <c r="XE1" s="20"/>
+      <c r="XF1" s="20"/>
+      <c r="XG1" s="20"/>
+      <c r="XH1" s="20"/>
+      <c r="XI1" s="20"/>
+      <c r="XJ1" s="20"/>
+      <c r="XK1" s="20"/>
+      <c r="XL1" s="20"/>
+      <c r="XM1" s="20"/>
+      <c r="XN1" s="20"/>
+      <c r="XO1" s="20"/>
+      <c r="XP1" s="20"/>
+      <c r="XQ1" s="20"/>
+      <c r="XR1" s="20"/>
       <c r="XS1" s="20"/>
-      <c r="XT1" s="21" t="s">
+      <c r="XT1" s="20"/>
+      <c r="XU1" s="20"/>
+      <c r="XV1" s="20"/>
+      <c r="XW1" s="20"/>
+      <c r="XX1" s="20"/>
+      <c r="XY1" s="20"/>
+      <c r="XZ1" s="20"/>
+      <c r="YA1" s="20"/>
+      <c r="YB1" s="20"/>
+      <c r="YC1" s="20"/>
+      <c r="YD1" s="20"/>
+      <c r="YE1" s="20"/>
+      <c r="YF1" s="20"/>
+      <c r="YG1" s="20"/>
+      <c r="YH1" s="20"/>
+      <c r="YI1" s="20"/>
+      <c r="YJ1" s="20"/>
+      <c r="YK1" s="20"/>
+      <c r="YL1" s="20"/>
+      <c r="YM1" s="20"/>
+      <c r="YN1" s="20"/>
+      <c r="YO1" s="20"/>
+      <c r="YP1" s="20"/>
+      <c r="YQ1" s="20"/>
+      <c r="YR1" s="20"/>
+      <c r="YS1" s="20"/>
+      <c r="YT1" s="20"/>
+      <c r="YU1" s="20"/>
+      <c r="YV1" s="20"/>
+      <c r="YW1" s="20"/>
+      <c r="YX1" s="20"/>
+      <c r="YY1" s="20"/>
+      <c r="YZ1" s="20"/>
+      <c r="ZA1" s="20"/>
+      <c r="ZB1" s="20"/>
+      <c r="ZC1" s="20"/>
+      <c r="ZD1" s="20"/>
+      <c r="ZE1" s="20"/>
+      <c r="ZF1" s="20"/>
+      <c r="ZG1" s="20"/>
+      <c r="ZH1" s="20"/>
+      <c r="ZI1" s="20"/>
+      <c r="ZJ1" s="20"/>
+      <c r="ZK1" s="20"/>
+      <c r="ZL1" s="20"/>
+      <c r="ZM1" s="20"/>
+      <c r="ZN1" s="20"/>
+      <c r="ZO1" s="20"/>
+      <c r="ZP1" s="20"/>
+      <c r="ZQ1" s="20"/>
+      <c r="ZR1" s="20"/>
+      <c r="ZS1" s="20"/>
+      <c r="ZT1" s="20"/>
+      <c r="ZU1" s="20"/>
+      <c r="ZV1" s="20"/>
+      <c r="ZW1" s="20"/>
+      <c r="ZX1" s="20"/>
+      <c r="ZY1" s="20"/>
+      <c r="ZZ1" s="20"/>
+      <c r="AAA1" s="20"/>
+      <c r="AAB1" s="20"/>
+      <c r="AAC1" s="20"/>
+      <c r="AAD1" s="20"/>
+      <c r="AAE1" s="20"/>
+      <c r="AAF1" s="20"/>
+      <c r="AAG1" s="20"/>
+      <c r="AAH1" s="20"/>
+      <c r="AAI1" s="20"/>
+      <c r="AAJ1" s="20"/>
+      <c r="AAK1" s="20"/>
+      <c r="AAL1" s="20"/>
+      <c r="AAM1" s="20"/>
+      <c r="AAN1" s="20"/>
+      <c r="AAO1" s="20"/>
+      <c r="AAP1" s="20"/>
+      <c r="AAQ1" s="20"/>
+      <c r="AAR1" s="20"/>
+      <c r="AAS1" s="20"/>
+      <c r="AAT1" s="20"/>
+      <c r="AAU1" s="20"/>
+      <c r="AAV1" s="20"/>
+      <c r="AAW1" s="20"/>
+      <c r="AAX1" s="20"/>
+      <c r="AAY1" s="20"/>
+      <c r="AAZ1" s="20"/>
+      <c r="ABA1" s="21"/>
+      <c r="ABB1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="XU1" s="22"/>
-      <c r="XV1" s="22"/>
-      <c r="XW1" s="22"/>
-      <c r="XX1" s="22"/>
-      <c r="XY1" s="22"/>
-      <c r="XZ1" s="22"/>
-      <c r="YA1" s="22"/>
-      <c r="YB1" s="22"/>
-      <c r="YC1" s="22"/>
-      <c r="YD1" s="22"/>
-      <c r="YE1" s="22"/>
-      <c r="YF1" s="22"/>
-      <c r="YG1" s="22"/>
-      <c r="YH1" s="22"/>
-      <c r="YI1" s="22"/>
-      <c r="YJ1" s="22"/>
-      <c r="YK1" s="22"/>
-      <c r="YL1" s="22"/>
-      <c r="YM1" s="22"/>
-      <c r="YN1" s="22"/>
-      <c r="YO1" s="22"/>
-      <c r="YP1" s="22"/>
-      <c r="YQ1" s="22"/>
-      <c r="YR1" s="22"/>
-      <c r="YS1" s="22"/>
-      <c r="YT1" s="22"/>
-      <c r="YU1" s="22"/>
-      <c r="YV1" s="22"/>
-      <c r="YW1" s="22"/>
-      <c r="YX1" s="22"/>
-      <c r="YY1" s="22"/>
-      <c r="YZ1" s="22"/>
-      <c r="ZA1" s="22"/>
-      <c r="ZB1" s="22"/>
-      <c r="ZC1" s="22"/>
-      <c r="ZD1" s="22"/>
-      <c r="ZE1" s="22"/>
-      <c r="ZF1" s="22"/>
-      <c r="ZG1" s="22"/>
-      <c r="ZH1" s="22"/>
-      <c r="ZI1" s="22"/>
-      <c r="ZJ1" s="22"/>
-      <c r="ZK1" s="22"/>
-      <c r="ZL1" s="22"/>
-      <c r="ZM1" s="22"/>
-      <c r="ZN1" s="22"/>
-      <c r="ZO1" s="22"/>
-      <c r="ZP1" s="22"/>
-      <c r="ZQ1" s="22"/>
-      <c r="ZR1" s="22"/>
-      <c r="ZS1" s="22"/>
-      <c r="ZT1" s="22"/>
-      <c r="ZU1" s="22"/>
-      <c r="ZV1" s="22"/>
-      <c r="ZW1" s="22"/>
-      <c r="ZX1" s="22"/>
-      <c r="ZY1" s="22"/>
-      <c r="ZZ1" s="22"/>
-      <c r="AAA1" s="22"/>
-      <c r="AAB1" s="22"/>
-      <c r="AAC1" s="22"/>
-      <c r="AAD1" s="22"/>
-      <c r="AAE1" s="22"/>
-      <c r="AAF1" s="22"/>
-      <c r="AAG1" s="22"/>
-      <c r="AAH1" s="22"/>
-      <c r="AAI1" s="22"/>
-      <c r="AAJ1" s="22"/>
-      <c r="AAK1" s="22"/>
-      <c r="AAL1" s="22"/>
-      <c r="AAM1" s="22"/>
-      <c r="AAN1" s="22"/>
-      <c r="AAO1" s="22"/>
-      <c r="AAP1" s="22"/>
-      <c r="AAQ1" s="22"/>
-      <c r="AAR1" s="22"/>
-      <c r="AAS1" s="22"/>
-      <c r="AAT1" s="22"/>
-      <c r="AAU1" s="22"/>
-      <c r="AAV1" s="22"/>
-      <c r="AAW1" s="22"/>
-      <c r="AAX1" s="22"/>
-      <c r="AAY1" s="22"/>
-      <c r="AAZ1" s="22"/>
-      <c r="ABA1" s="22"/>
-      <c r="ABB1" s="22"/>
-      <c r="ABC1" s="22"/>
-      <c r="ABD1" s="22"/>
-      <c r="ABE1" s="22"/>
-      <c r="ABF1" s="22"/>
-      <c r="ABG1" s="22"/>
-      <c r="ABH1" s="22"/>
-      <c r="ABI1" s="22"/>
-      <c r="ABJ1" s="22"/>
-      <c r="ABK1" s="22"/>
-      <c r="ABL1" s="22"/>
-      <c r="ABM1" s="22"/>
-      <c r="ABN1" s="22"/>
-      <c r="ABO1" s="22"/>
-      <c r="ABP1" s="22"/>
-      <c r="ABQ1" s="22"/>
-      <c r="ABR1" s="22"/>
-      <c r="ABS1" s="22"/>
-      <c r="ABT1" s="22"/>
-      <c r="ABU1" s="22"/>
-      <c r="ABV1" s="22"/>
-      <c r="ABW1" s="22"/>
-      <c r="ABX1" s="22"/>
-      <c r="ABY1" s="22"/>
-      <c r="ABZ1" s="22"/>
-      <c r="ACA1" s="22"/>
-      <c r="ACB1" s="22"/>
-      <c r="ACC1" s="22"/>
-      <c r="ACD1" s="22"/>
-      <c r="ACE1" s="22"/>
-      <c r="ACF1" s="22"/>
-      <c r="ACG1" s="22"/>
-      <c r="ACH1" s="22"/>
-      <c r="ACI1" s="22"/>
-      <c r="ACJ1" s="22"/>
-      <c r="ACK1" s="22"/>
-      <c r="ACL1" s="22"/>
-      <c r="ACM1" s="22"/>
-      <c r="ACN1" s="22"/>
-      <c r="ACO1" s="22"/>
-      <c r="ACP1" s="22"/>
+      <c r="ABC1" s="23"/>
+      <c r="ABD1" s="23"/>
+      <c r="ABE1" s="23"/>
+      <c r="ABF1" s="23"/>
+      <c r="ABG1" s="23"/>
+      <c r="ABH1" s="23"/>
+      <c r="ABI1" s="23"/>
+      <c r="ABJ1" s="23"/>
+      <c r="ABK1" s="23"/>
+      <c r="ABL1" s="23"/>
+      <c r="ABM1" s="23"/>
+      <c r="ABN1" s="23"/>
+      <c r="ABO1" s="23"/>
+      <c r="ABP1" s="23"/>
+      <c r="ABQ1" s="23"/>
+      <c r="ABR1" s="23"/>
+      <c r="ABS1" s="23"/>
+      <c r="ABT1" s="23"/>
+      <c r="ABU1" s="23"/>
+      <c r="ABV1" s="23"/>
+      <c r="ABW1" s="23"/>
+      <c r="ABX1" s="23"/>
+      <c r="ABY1" s="23"/>
+      <c r="ABZ1" s="23"/>
+      <c r="ACA1" s="23"/>
+      <c r="ACB1" s="23"/>
+      <c r="ACC1" s="23"/>
+      <c r="ACD1" s="23"/>
+      <c r="ACE1" s="23"/>
+      <c r="ACF1" s="23"/>
+      <c r="ACG1" s="23"/>
+      <c r="ACH1" s="23"/>
+      <c r="ACI1" s="23"/>
+      <c r="ACJ1" s="23"/>
+      <c r="ACK1" s="23"/>
+      <c r="ACL1" s="23"/>
+      <c r="ACM1" s="23"/>
+      <c r="ACN1" s="23"/>
+      <c r="ACO1" s="23"/>
+      <c r="ACP1" s="23"/>
       <c r="ACQ1" s="23"/>
-      <c r="ACS1" s="24" t="s">
+      <c r="ACR1" s="23"/>
+      <c r="ACS1" s="23"/>
+      <c r="ACT1" s="23"/>
+      <c r="ACU1" s="23"/>
+      <c r="ACV1" s="23"/>
+      <c r="ACW1" s="23"/>
+      <c r="ACX1" s="23"/>
+      <c r="ACY1" s="23"/>
+      <c r="ACZ1" s="23"/>
+      <c r="ADA1" s="23"/>
+      <c r="ADB1" s="23"/>
+      <c r="ADC1" s="23"/>
+      <c r="ADD1" s="23"/>
+      <c r="ADE1" s="23"/>
+      <c r="ADF1" s="23"/>
+      <c r="ADG1" s="23"/>
+      <c r="ADH1" s="23"/>
+      <c r="ADI1" s="23"/>
+      <c r="ADJ1" s="23"/>
+      <c r="ADK1" s="23"/>
+      <c r="ADL1" s="23"/>
+      <c r="ADM1" s="23"/>
+      <c r="ADN1" s="23"/>
+      <c r="ADO1" s="23"/>
+      <c r="ADP1" s="23"/>
+      <c r="ADQ1" s="23"/>
+      <c r="ADR1" s="23"/>
+      <c r="ADS1" s="23"/>
+      <c r="ADT1" s="23"/>
+      <c r="ADU1" s="23"/>
+      <c r="ADV1" s="23"/>
+      <c r="ADW1" s="23"/>
+      <c r="ADX1" s="23"/>
+      <c r="ADY1" s="23"/>
+      <c r="ADZ1" s="23"/>
+      <c r="AEA1" s="23"/>
+      <c r="AEB1" s="23"/>
+      <c r="AEC1" s="23"/>
+      <c r="AED1" s="23"/>
+      <c r="AEE1" s="23"/>
+      <c r="AEF1" s="23"/>
+      <c r="AEG1" s="23"/>
+      <c r="AEH1" s="23"/>
+      <c r="AEI1" s="23"/>
+      <c r="AEJ1" s="23"/>
+      <c r="AEK1" s="23"/>
+      <c r="AEL1" s="23"/>
+      <c r="AEM1" s="23"/>
+      <c r="AEN1" s="23"/>
+      <c r="AEO1" s="23"/>
+      <c r="AEP1" s="23"/>
+      <c r="AEQ1" s="23"/>
+      <c r="AER1" s="23"/>
+      <c r="AES1" s="23"/>
+      <c r="AET1" s="23"/>
+      <c r="AEU1" s="23"/>
+      <c r="AEV1" s="23"/>
+      <c r="AEW1" s="23"/>
+      <c r="AEX1" s="23"/>
+      <c r="AEY1" s="23"/>
+      <c r="AEZ1" s="23"/>
+      <c r="AFA1" s="23"/>
+      <c r="AFB1" s="23"/>
+      <c r="AFC1" s="23"/>
+      <c r="AFD1" s="23"/>
+      <c r="AFE1" s="23"/>
+      <c r="AFF1" s="23"/>
+      <c r="AFG1" s="23"/>
+      <c r="AFH1" s="23"/>
+      <c r="AFI1" s="23"/>
+      <c r="AFJ1" s="23"/>
+      <c r="AFK1" s="23"/>
+      <c r="AFL1" s="23"/>
+      <c r="AFM1" s="23"/>
+      <c r="AFN1" s="23"/>
+      <c r="AFO1" s="23"/>
+      <c r="AFP1" s="23"/>
+      <c r="AFQ1" s="23"/>
+      <c r="AFR1" s="23"/>
+      <c r="AFS1" s="23"/>
+      <c r="AFT1" s="23"/>
+      <c r="AFU1" s="23"/>
+      <c r="AFV1" s="23"/>
+      <c r="AFW1" s="23"/>
+      <c r="AFX1" s="23"/>
+      <c r="AFY1" s="24"/>
+      <c r="AGA1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="ACT1" s="25"/>
-      <c r="ACU1" s="25"/>
-      <c r="ACV1" s="25"/>
-      <c r="ACW1" s="25"/>
-      <c r="ACX1" s="26"/>
+      <c r="AGB1" s="26"/>
+      <c r="AGC1" s="26"/>
+      <c r="AGD1" s="26"/>
+      <c r="AGE1" s="26"/>
+      <c r="AGF1" s="27"/>
     </row>
-    <row r="2" spans="1:778" s="8" customFormat="1" ht="36" customHeight="1">
+    <row r="2" spans="1:864" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD2" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH2" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA2" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="CI2" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="CK2" s="40"/>
+      <c r="CL2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="CM2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="CN2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="CO2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="CP2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="CQ2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="CR2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="CS2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="CT2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="CU2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="CV2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="CW2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="CX2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="CY2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="CZ2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="DA2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="DB2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="DC2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="DD2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="DE2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="DF2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="DG2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="DH2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="DI2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="DJ2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="DK2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="DL2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="DM2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="DN2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="DO2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="DP2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="DQ2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="DR2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="DS2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="DT2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="DU2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="DV2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="DW2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="DX2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="DY2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="DZ2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="EA2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="EB2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="EC2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="ED2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="EE2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="EF2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="EG2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="EH2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="EI2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="EJ2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="EK2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" s="10" t="s">
+      <c r="EL2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BE2" s="10" t="s">
+      <c r="EM2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="EN2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="EO2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="EP2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="EQ2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="ER2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="ES2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="ET2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="EU2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="EV2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BO2" s="10" t="s">
+      <c r="EW2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" s="10" t="s">
+      <c r="EX2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="EY2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BR2" s="10" t="s">
+      <c r="EZ2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BS2" s="10" t="s">
+      <c r="FA2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="BT2" s="10" t="s">
+      <c r="FB2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="BU2" s="10" t="s">
+      <c r="FC2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BV2" s="10" t="s">
+      <c r="FD2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="BW2" s="10" t="s">
+      <c r="FE2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="FF2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="FG2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="FH2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="CA2" s="10" t="s">
+      <c r="FI2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="FJ2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="CC2" s="10" t="s">
+      <c r="FK2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="CD2" s="10" t="s">
+      <c r="FL2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="10" t="s">
+      <c r="FM2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="CF2" s="10" t="s">
+      <c r="FN2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="CG2" s="10" t="s">
+      <c r="FO2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="CH2" s="10" t="s">
+      <c r="FP2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="CI2" s="10" t="s">
+      <c r="FQ2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="CJ2" s="10" t="s">
+      <c r="FR2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CK2" s="10" t="s">
+      <c r="FS2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="CL2" s="10" t="s">
+      <c r="FT2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="CM2" s="10" t="s">
+      <c r="FU2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="CN2" s="10" t="s">
+      <c r="FV2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="CO2" s="10" t="s">
+      <c r="FW2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="CP2" s="10" t="s">
+      <c r="FX2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="CQ2" s="10" t="s">
+      <c r="FY2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="CR2" s="10" t="s">
+      <c r="FZ2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="CS2" s="10" t="s">
+      <c r="GA2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="CT2" s="10" t="s">
+      <c r="GB2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="CU2" s="10" t="s">
+      <c r="GC2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="CV2" s="10" t="s">
+      <c r="GD2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="CW2" s="10" t="s">
+      <c r="GE2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="CX2" s="10" t="s">
+      <c r="GF2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="CY2" s="10" t="s">
+      <c r="GG2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="CZ2" s="10" t="s">
+      <c r="GH2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="DA2" s="10" t="s">
+      <c r="GI2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DB2" s="10" t="s">
+      <c r="GJ2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="DC2" s="10" t="s">
+      <c r="GK2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="DD2" s="10" t="s">
+      <c r="GL2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="DE2" s="10" t="s">
+      <c r="GM2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="DF2" s="10" t="s">
+      <c r="GN2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="DG2" s="10" t="s">
+      <c r="GO2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="DH2" s="10" t="s">
+      <c r="GP2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="DI2" s="10" t="s">
+      <c r="GQ2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="DJ2" s="10" t="s">
+      <c r="GR2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="DK2" s="10" t="s">
+      <c r="GS2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="DL2" s="10" t="s">
+      <c r="GT2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="DM2" s="10" t="s">
+      <c r="GU2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="DN2" s="10" t="s">
+      <c r="GV2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="DO2" s="10" t="s">
+      <c r="GW2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="DP2" s="10" t="s">
+      <c r="GX2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="DQ2" s="10" t="s">
+      <c r="GY2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="DR2" s="10" t="s">
+      <c r="GZ2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="DS2" s="10" t="s">
+      <c r="HA2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="DT2" s="10" t="s">
+      <c r="HB2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DU2" s="10" t="s">
+      <c r="HC2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DV2" s="10" t="s">
+      <c r="HD2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DW2" s="10" t="s">
+      <c r="HE2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DX2" s="10" t="s">
+      <c r="HF2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DY2" s="10" t="s">
+      <c r="HG2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DZ2" s="10" t="s">
+      <c r="HH2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="EA2" s="11" t="s">
+      <c r="HI2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="EB2" s="12" t="s">
+      <c r="HJ2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="EC2" s="13" t="s">
+      <c r="HK2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="ED2" s="13" t="s">
+      <c r="HL2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="EE2" s="13" t="s">
+      <c r="HM2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="EF2" s="13" t="s">
+      <c r="HN2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="EG2" s="13" t="s">
+      <c r="HO2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="EH2" s="13" t="s">
+      <c r="HP2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="EI2" s="13" t="s">
+      <c r="HQ2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="EJ2" s="13" t="s">
+      <c r="HR2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="EK2" s="13" t="s">
+      <c r="HS2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="EL2" s="13" t="s">
+      <c r="HT2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" s="13" t="s">
+      <c r="HU2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="EN2" s="13" t="s">
+      <c r="HV2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="EO2" s="13" t="s">
+      <c r="HW2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="EP2" s="13" t="s">
+      <c r="HX2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="EQ2" s="13" t="s">
+      <c r="HY2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="ER2" s="13" t="s">
+      <c r="HZ2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="ES2" s="13" t="s">
+      <c r="IA2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="ET2" s="13" t="s">
+      <c r="IB2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="EU2" s="13" t="s">
+      <c r="IC2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="EV2" s="13" t="s">
+      <c r="ID2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="EW2" s="13" t="s">
+      <c r="IE2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="EX2" s="13" t="s">
+      <c r="IF2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="EY2" s="13" t="s">
+      <c r="IG2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="EZ2" s="13" t="s">
+      <c r="IH2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="FA2" s="13" t="s">
+      <c r="II2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="FB2" s="13" t="s">
+      <c r="IJ2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="FC2" s="13" t="s">
+      <c r="IK2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="FD2" s="13" t="s">
+      <c r="IL2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="FE2" s="13" t="s">
+      <c r="IM2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="FF2" s="13" t="s">
+      <c r="IN2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="FG2" s="13" t="s">
+      <c r="IO2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="FH2" s="13" t="s">
+      <c r="IP2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="FI2" s="13" t="s">
+      <c r="IQ2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="FJ2" s="13" t="s">
+      <c r="IR2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="FK2" s="13" t="s">
+      <c r="IS2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="FL2" s="13" t="s">
+      <c r="IT2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="FM2" s="13" t="s">
+      <c r="IU2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="FN2" s="13" t="s">
+      <c r="IV2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="FO2" s="13" t="s">
+      <c r="IW2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="FP2" s="13" t="s">
+      <c r="IX2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="FQ2" s="13" t="s">
+      <c r="IY2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="FR2" s="13" t="s">
+      <c r="IZ2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="FS2" s="13" t="s">
+      <c r="JA2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="FT2" s="13" t="s">
+      <c r="JB2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="FU2" s="13" t="s">
+      <c r="JC2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="FV2" s="13" t="s">
+      <c r="JD2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="FW2" s="13" t="s">
+      <c r="JE2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="FX2" s="13" t="s">
+      <c r="JF2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="FY2" s="13" t="s">
+      <c r="JG2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="FZ2" s="13" t="s">
+      <c r="JH2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="GA2" s="13" t="s">
+      <c r="JI2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="GB2" s="13" t="s">
+      <c r="JJ2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="GC2" s="13" t="s">
+      <c r="JK2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="GD2" s="13" t="s">
+      <c r="JL2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="GE2" s="13" t="s">
+      <c r="JM2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="GF2" s="13" t="s">
+      <c r="JN2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="GG2" s="13" t="s">
+      <c r="JO2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="GH2" s="13" t="s">
+      <c r="JP2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="GI2" s="13" t="s">
+      <c r="JQ2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="GJ2" s="13" t="s">
+      <c r="JR2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="GK2" s="13" t="s">
+      <c r="JS2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="GL2" s="13" t="s">
+      <c r="JT2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="GM2" s="13" t="s">
+      <c r="JU2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="GN2" s="13" t="s">
+      <c r="JV2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="GO2" s="13" t="s">
+      <c r="JW2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="GP2" s="13" t="s">
+      <c r="JX2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="GQ2" s="13" t="s">
+      <c r="JY2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="GR2" s="13" t="s">
+      <c r="JZ2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="GS2" s="13" t="s">
+      <c r="KA2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="GT2" s="13" t="s">
+      <c r="KB2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="GU2" s="13" t="s">
+      <c r="KC2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="GV2" s="13" t="s">
+      <c r="KD2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="GW2" s="13" t="s">
+      <c r="KE2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="GX2" s="13" t="s">
+      <c r="KF2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="GY2" s="13" t="s">
+      <c r="KG2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="GZ2" s="13" t="s">
+      <c r="KH2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="HA2" s="13" t="s">
+      <c r="KI2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="HB2" s="13" t="s">
+      <c r="KJ2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="HC2" s="13" t="s">
+      <c r="KK2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="HD2" s="13" t="s">
+      <c r="KL2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="HE2" s="13" t="s">
+      <c r="KM2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="HF2" s="13" t="s">
+      <c r="KN2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="HG2" s="13" t="s">
+      <c r="KO2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="HH2" s="13" t="s">
+      <c r="KP2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="HI2" s="13" t="s">
+      <c r="KQ2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="HJ2" s="13" t="s">
+      <c r="KR2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="HK2" s="13" t="s">
+      <c r="KS2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="HL2" s="13" t="s">
+      <c r="KT2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="HM2" s="13" t="s">
+      <c r="KU2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="HN2" s="13" t="s">
+      <c r="KV2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="HO2" s="13" t="s">
+      <c r="KW2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="HP2" s="13" t="s">
+      <c r="KX2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="HQ2" s="13" t="s">
+      <c r="KY2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="HR2" s="13" t="s">
+      <c r="KZ2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="HS2" s="13" t="s">
+      <c r="LA2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="HT2" s="13" t="s">
+      <c r="LB2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="HU2" s="13" t="s">
+      <c r="LC2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="HV2" s="13" t="s">
+      <c r="LD2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="HW2" s="13" t="s">
+      <c r="LE2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="HX2" s="13" t="s">
+      <c r="LF2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="HY2" s="13" t="s">
+      <c r="LG2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="HZ2" s="13" t="s">
+      <c r="LH2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="IA2" s="13" t="s">
+      <c r="LI2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="IB2" s="13" t="s">
+      <c r="LJ2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="IC2" s="13" t="s">
+      <c r="LK2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="ID2" s="13" t="s">
+      <c r="LL2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="IE2" s="13" t="s">
+      <c r="LM2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="IF2" s="13" t="s">
+      <c r="LN2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="IG2" s="13" t="s">
+      <c r="LO2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="IH2" s="13" t="s">
+      <c r="LP2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="II2" s="13" t="s">
+      <c r="LQ2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="IJ2" s="13" t="s">
+      <c r="LR2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="IK2" s="13" t="s">
+      <c r="LS2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="IL2" s="13" t="s">
+      <c r="LT2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="IM2" s="13" t="s">
+      <c r="LU2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="IN2" s="13" t="s">
+      <c r="LV2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="IO2" s="13" t="s">
+      <c r="LW2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="IP2" s="13" t="s">
+      <c r="LX2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="IQ2" s="13" t="s">
+      <c r="LY2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="IR2" s="13" t="s">
+      <c r="LZ2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="IS2" s="13" t="s">
+      <c r="MA2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="IT2" s="13" t="s">
+      <c r="MB2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="IU2" s="13" t="s">
+      <c r="MC2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="IV2" s="13" t="s">
+      <c r="MD2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="IW2" s="13" t="s">
+      <c r="ME2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="IX2" s="13" t="s">
+      <c r="MF2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="IY2" s="14" t="s">
+      <c r="MG2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="IZ2" s="9" t="s">
+      <c r="MH2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="JA2" s="10" t="s">
+      <c r="MI2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="JB2" s="10" t="s">
+      <c r="MJ2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="JC2" s="10" t="s">
+      <c r="MK2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="JD2" s="10" t="s">
+      <c r="ML2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="JE2" s="10" t="s">
+      <c r="MM2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="JF2" s="10" t="s">
+      <c r="MN2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="JG2" s="10" t="s">
+      <c r="MO2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="JH2" s="10" t="s">
+      <c r="MP2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="JI2" s="10" t="s">
+      <c r="MQ2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="JJ2" s="10" t="s">
+      <c r="MR2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="JK2" s="10" t="s">
+      <c r="MS2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="JL2" s="10" t="s">
+      <c r="MT2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="JM2" s="10" t="s">
+      <c r="MU2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="JN2" s="10" t="s">
+      <c r="MV2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="JO2" s="10" t="s">
+      <c r="MW2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="JP2" s="10" t="s">
+      <c r="MX2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="JQ2" s="10" t="s">
+      <c r="MY2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="JR2" s="10" t="s">
+      <c r="MZ2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="JS2" s="10" t="s">
+      <c r="NA2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="JT2" s="10" t="s">
+      <c r="NB2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="JU2" s="10" t="s">
+      <c r="NC2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="JV2" s="10" t="s">
+      <c r="ND2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="JW2" s="10" t="s">
+      <c r="NE2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="JX2" s="10" t="s">
+      <c r="NF2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="JY2" s="10" t="s">
+      <c r="NG2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="JZ2" s="10" t="s">
+      <c r="NH2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="KA2" s="10" t="s">
+      <c r="NI2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="KB2" s="10" t="s">
+      <c r="NJ2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="KC2" s="10" t="s">
+      <c r="NK2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="KD2" s="10" t="s">
+      <c r="NL2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="KE2" s="10" t="s">
+      <c r="NM2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="KF2" s="10" t="s">
+      <c r="NN2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="KG2" s="10" t="s">
+      <c r="NO2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="KH2" s="10" t="s">
+      <c r="NP2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="KI2" s="10" t="s">
+      <c r="NQ2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="KJ2" s="10" t="s">
+      <c r="NR2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="KK2" s="10" t="s">
+      <c r="NS2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="KL2" s="10" t="s">
+      <c r="NT2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="KM2" s="10" t="s">
+      <c r="NU2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="KN2" s="10" t="s">
+      <c r="NV2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="KO2" s="10" t="s">
+      <c r="NW2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="KP2" s="10" t="s">
+      <c r="NX2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="KQ2" s="10" t="s">
+      <c r="NY2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="KR2" s="10" t="s">
+      <c r="NZ2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="KS2" s="10" t="s">
+      <c r="OA2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="KT2" s="10" t="s">
+      <c r="OB2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="KU2" s="10" t="s">
+      <c r="OC2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="KV2" s="10" t="s">
+      <c r="OD2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="KW2" s="10" t="s">
+      <c r="OE2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="KX2" s="10" t="s">
+      <c r="OF2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="KY2" s="10" t="s">
+      <c r="OG2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="KZ2" s="10" t="s">
+      <c r="OH2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="LA2" s="10" t="s">
+      <c r="OI2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="LB2" s="10" t="s">
+      <c r="OJ2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="LC2" s="10" t="s">
+      <c r="OK2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="LD2" s="10" t="s">
+      <c r="OL2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="LE2" s="10" t="s">
+      <c r="OM2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="LF2" s="10" t="s">
+      <c r="ON2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="LG2" s="10" t="s">
+      <c r="OO2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="LH2" s="10" t="s">
+      <c r="OP2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="LI2" s="10" t="s">
+      <c r="OQ2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="LJ2" s="10" t="s">
+      <c r="OR2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="LK2" s="10" t="s">
+      <c r="OS2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="LL2" s="10" t="s">
+      <c r="OT2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="LM2" s="10" t="s">
+      <c r="OU2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="LN2" s="10" t="s">
+      <c r="OV2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="LO2" s="10" t="s">
+      <c r="OW2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="LP2" s="10" t="s">
+      <c r="OX2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="LQ2" s="10" t="s">
+      <c r="OY2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="LR2" s="10" t="s">
+      <c r="OZ2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="LS2" s="10" t="s">
+      <c r="PA2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="LT2" s="10" t="s">
+      <c r="PB2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="LU2" s="10" t="s">
+      <c r="PC2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="LV2" s="10" t="s">
+      <c r="PD2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="LW2" s="10" t="s">
+      <c r="PE2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="LX2" s="10" t="s">
+      <c r="PF2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="LY2" s="10" t="s">
+      <c r="PG2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="LZ2" s="10" t="s">
+      <c r="PH2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="MA2" s="10" t="s">
+      <c r="PI2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="MB2" s="10" t="s">
+      <c r="PJ2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="MC2" s="10" t="s">
+      <c r="PK2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="MD2" s="10" t="s">
+      <c r="PL2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="ME2" s="10" t="s">
+      <c r="PM2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="MF2" s="10" t="s">
+      <c r="PN2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="MG2" s="10" t="s">
+      <c r="PO2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="MH2" s="10" t="s">
+      <c r="PP2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="MI2" s="10" t="s">
+      <c r="PQ2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="MJ2" s="10" t="s">
+      <c r="PR2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="MK2" s="10" t="s">
+      <c r="PS2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="ML2" s="10" t="s">
+      <c r="PT2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="MM2" s="10" t="s">
+      <c r="PU2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="MN2" s="10" t="s">
+      <c r="PV2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="MO2" s="10" t="s">
+      <c r="PW2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="MP2" s="10" t="s">
+      <c r="PX2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="MQ2" s="10" t="s">
+      <c r="PY2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="MR2" s="10" t="s">
+      <c r="PZ2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="MS2" s="10" t="s">
+      <c r="QA2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="MT2" s="10" t="s">
+      <c r="QB2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="MU2" s="10" t="s">
+      <c r="QC2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="MV2" s="10" t="s">
+      <c r="QD2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="MW2" s="10" t="s">
+      <c r="QE2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="MX2" s="10" t="s">
+      <c r="QF2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="MY2" s="10" t="s">
+      <c r="QG2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="MZ2" s="10" t="s">
+      <c r="QH2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="NA2" s="10" t="s">
+      <c r="QI2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="NB2" s="10" t="s">
+      <c r="QJ2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="NC2" s="10" t="s">
+      <c r="QK2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="ND2" s="10" t="s">
+      <c r="QL2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="NE2" s="10" t="s">
+      <c r="QM2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="NF2" s="10" t="s">
+      <c r="QN2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="NG2" s="10" t="s">
+      <c r="QO2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="NH2" s="10" t="s">
+      <c r="QP2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="NI2" s="10" t="s">
+      <c r="QQ2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="NJ2" s="10" t="s">
+      <c r="QR2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="NK2" s="10" t="s">
+      <c r="QS2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="NL2" s="10" t="s">
+      <c r="QT2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="NM2" s="10" t="s">
+      <c r="QU2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="NN2" s="10" t="s">
+      <c r="QV2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="NO2" s="10" t="s">
+      <c r="QW2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="NP2" s="10" t="s">
+      <c r="QX2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="NQ2" s="10" t="s">
+      <c r="QY2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="NR2" s="10" t="s">
+      <c r="QZ2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="NS2" s="10" t="s">
+      <c r="RA2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="NT2" s="10" t="s">
+      <c r="RB2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="NU2" s="10" t="s">
+      <c r="RC2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="NV2" s="10" t="s">
+      <c r="RD2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="NW2" s="11" t="s">
+      <c r="RE2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="NX2" s="12" t="s">
+      <c r="RF2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="NY2" s="13" t="s">
+      <c r="RG2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="NZ2" s="13" t="s">
+      <c r="RH2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="OA2" s="13" t="s">
+      <c r="RI2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="OB2" s="13" t="s">
+      <c r="RJ2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="OC2" s="13" t="s">
+      <c r="RK2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="OD2" s="13" t="s">
+      <c r="RL2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="OE2" s="13" t="s">
+      <c r="RM2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="OF2" s="13" t="s">
+      <c r="RN2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="OG2" s="13" t="s">
+      <c r="RO2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="OH2" s="13" t="s">
+      <c r="RP2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="OI2" s="13" t="s">
+      <c r="RQ2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="OJ2" s="13" t="s">
+      <c r="RR2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="OK2" s="13" t="s">
+      <c r="RS2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="OL2" s="13" t="s">
+      <c r="RT2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="OM2" s="13" t="s">
+      <c r="RU2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="ON2" s="13" t="s">
+      <c r="RV2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="OO2" s="13" t="s">
+      <c r="RW2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="OP2" s="13" t="s">
+      <c r="RX2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="OQ2" s="13" t="s">
+      <c r="RY2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="OR2" s="13" t="s">
+      <c r="RZ2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="OS2" s="13" t="s">
+      <c r="SA2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="OT2" s="13" t="s">
+      <c r="SB2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="OU2" s="13" t="s">
+      <c r="SC2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="OV2" s="13" t="s">
+      <c r="SD2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="OW2" s="13" t="s">
+      <c r="SE2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="OX2" s="13" t="s">
+      <c r="SF2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="OY2" s="13" t="s">
+      <c r="SG2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="OZ2" s="13" t="s">
+      <c r="SH2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="PA2" s="13" t="s">
+      <c r="SI2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="PB2" s="13" t="s">
+      <c r="SJ2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="PC2" s="13" t="s">
+      <c r="SK2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="PD2" s="13" t="s">
+      <c r="SL2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="PE2" s="13" t="s">
+      <c r="SM2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="PF2" s="13" t="s">
+      <c r="SN2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="PG2" s="13" t="s">
+      <c r="SO2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="PH2" s="13" t="s">
+      <c r="SP2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="PI2" s="13" t="s">
+      <c r="SQ2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="PJ2" s="13" t="s">
+      <c r="SR2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="PK2" s="13" t="s">
+      <c r="SS2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="PL2" s="13" t="s">
+      <c r="ST2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="PM2" s="13" t="s">
+      <c r="SU2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="PN2" s="13" t="s">
+      <c r="SV2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="PO2" s="13" t="s">
+      <c r="SW2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="PP2" s="13" t="s">
+      <c r="SX2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="PQ2" s="13" t="s">
+      <c r="SY2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="PR2" s="13" t="s">
+      <c r="SZ2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="PS2" s="13" t="s">
+      <c r="TA2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="PT2" s="13" t="s">
+      <c r="TB2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="PU2" s="13" t="s">
+      <c r="TC2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="PV2" s="13" t="s">
+      <c r="TD2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="PW2" s="13" t="s">
+      <c r="TE2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="PX2" s="13" t="s">
+      <c r="TF2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="PY2" s="13" t="s">
+      <c r="TG2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="PZ2" s="13" t="s">
+      <c r="TH2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="QA2" s="13" t="s">
+      <c r="TI2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="QB2" s="13" t="s">
+      <c r="TJ2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="QC2" s="13" t="s">
+      <c r="TK2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="QD2" s="13" t="s">
+      <c r="TL2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="QE2" s="13" t="s">
+      <c r="TM2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="QF2" s="13" t="s">
+      <c r="TN2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="QG2" s="13" t="s">
+      <c r="TO2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="QH2" s="13" t="s">
+      <c r="TP2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="QI2" s="13" t="s">
+      <c r="TQ2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="QJ2" s="13" t="s">
+      <c r="TR2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="QK2" s="13" t="s">
+      <c r="TS2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="QL2" s="13" t="s">
+      <c r="TT2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="QM2" s="13" t="s">
+      <c r="TU2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="QN2" s="13" t="s">
+      <c r="TV2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="QO2" s="13" t="s">
+      <c r="TW2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="QP2" s="13" t="s">
+      <c r="TX2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="QQ2" s="13" t="s">
+      <c r="TY2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="QR2" s="13" t="s">
+      <c r="TZ2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="QS2" s="13" t="s">
+      <c r="UA2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="QT2" s="13" t="s">
+      <c r="UB2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="QU2" s="13" t="s">
+      <c r="UC2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="QV2" s="13" t="s">
+      <c r="UD2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="QW2" s="13" t="s">
+      <c r="UE2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="QX2" s="13" t="s">
+      <c r="UF2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="QY2" s="13" t="s">
+      <c r="UG2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="QZ2" s="13" t="s">
+      <c r="UH2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="RA2" s="13" t="s">
+      <c r="UI2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="RB2" s="13" t="s">
+      <c r="UJ2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="RC2" s="13" t="s">
+      <c r="UK2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="RD2" s="13" t="s">
+      <c r="UL2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="RE2" s="13" t="s">
+      <c r="UM2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="RF2" s="13" t="s">
+      <c r="UN2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="RG2" s="13" t="s">
+      <c r="UO2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="RH2" s="13" t="s">
+      <c r="UP2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="RI2" s="13" t="s">
+      <c r="UQ2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="RJ2" s="13" t="s">
+      <c r="UR2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="RK2" s="13" t="s">
+      <c r="US2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="RL2" s="13" t="s">
+      <c r="UT2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="RM2" s="13" t="s">
+      <c r="UU2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="RN2" s="13" t="s">
+      <c r="UV2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="RO2" s="13" t="s">
+      <c r="UW2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="RP2" s="13" t="s">
+      <c r="UX2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="RQ2" s="13" t="s">
+      <c r="UY2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="RR2" s="13" t="s">
+      <c r="UZ2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="RS2" s="13" t="s">
+      <c r="VA2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="RT2" s="13" t="s">
+      <c r="VB2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="RU2" s="13" t="s">
+      <c r="VC2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="RV2" s="13" t="s">
+      <c r="VD2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="RW2" s="13" t="s">
+      <c r="VE2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="RX2" s="13" t="s">
+      <c r="VF2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="RY2" s="13" t="s">
+      <c r="VG2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="RZ2" s="13" t="s">
+      <c r="VH2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="SA2" s="13" t="s">
+      <c r="VI2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="SB2" s="13" t="s">
+      <c r="VJ2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="SC2" s="13" t="s">
+      <c r="VK2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="SD2" s="13" t="s">
+      <c r="VL2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="SE2" s="13" t="s">
+      <c r="VM2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="SF2" s="13" t="s">
+      <c r="VN2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="SG2" s="13" t="s">
+      <c r="VO2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="SH2" s="13" t="s">
+      <c r="VP2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="SI2" s="13" t="s">
+      <c r="VQ2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="SJ2" s="13" t="s">
+      <c r="VR2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="SK2" s="13" t="s">
+      <c r="VS2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="SL2" s="13" t="s">
+      <c r="VT2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="SM2" s="13" t="s">
+      <c r="VU2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="SN2" s="13" t="s">
+      <c r="VV2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="SO2" s="13" t="s">
+      <c r="VW2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="SP2" s="13" t="s">
+      <c r="VX2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="SQ2" s="13" t="s">
+      <c r="VY2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="SR2" s="13" t="s">
+      <c r="VZ2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="SS2" s="13" t="s">
+      <c r="WA2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="ST2" s="13" t="s">
+      <c r="WB2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="SU2" s="14" t="s">
+      <c r="WC2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="SV2" s="9" t="s">
+      <c r="WD2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="SW2" s="10" t="s">
+      <c r="WE2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="SX2" s="10" t="s">
+      <c r="WF2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="SY2" s="10" t="s">
+      <c r="WG2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="SZ2" s="10" t="s">
+      <c r="WH2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="TA2" s="10" t="s">
+      <c r="WI2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="TB2" s="10" t="s">
+      <c r="WJ2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="TC2" s="10" t="s">
+      <c r="WK2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="TD2" s="10" t="s">
+      <c r="WL2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="TE2" s="10" t="s">
+      <c r="WM2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="TF2" s="10" t="s">
+      <c r="WN2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="TG2" s="10" t="s">
+      <c r="WO2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="TH2" s="10" t="s">
+      <c r="WP2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="TI2" s="10" t="s">
+      <c r="WQ2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="TJ2" s="10" t="s">
+      <c r="WR2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="TK2" s="10" t="s">
+      <c r="WS2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="TL2" s="10" t="s">
+      <c r="WT2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="TM2" s="10" t="s">
+      <c r="WU2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="TN2" s="10" t="s">
+      <c r="WV2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="TO2" s="10" t="s">
+      <c r="WW2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="TP2" s="10" t="s">
+      <c r="WX2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="TQ2" s="10" t="s">
+      <c r="WY2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="TR2" s="10" t="s">
+      <c r="WZ2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="TS2" s="10" t="s">
+      <c r="XA2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="TT2" s="10" t="s">
+      <c r="XB2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="TU2" s="10" t="s">
+      <c r="XC2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="TV2" s="10" t="s">
+      <c r="XD2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="TW2" s="10" t="s">
+      <c r="XE2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="TX2" s="10" t="s">
+      <c r="XF2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="TY2" s="10" t="s">
+      <c r="XG2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="TZ2" s="10" t="s">
+      <c r="XH2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="UA2" s="10" t="s">
+      <c r="XI2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="UB2" s="10" t="s">
+      <c r="XJ2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="UC2" s="10" t="s">
+      <c r="XK2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="UD2" s="10" t="s">
+      <c r="XL2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="UE2" s="10" t="s">
+      <c r="XM2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="UF2" s="10" t="s">
+      <c r="XN2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="UG2" s="10" t="s">
+      <c r="XO2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="UH2" s="10" t="s">
+      <c r="XP2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="UI2" s="10" t="s">
+      <c r="XQ2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="UJ2" s="10" t="s">
+      <c r="XR2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="UK2" s="10" t="s">
+      <c r="XS2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="UL2" s="10" t="s">
+      <c r="XT2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="UM2" s="10" t="s">
+      <c r="XU2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="UN2" s="10" t="s">
+      <c r="XV2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="UO2" s="10" t="s">
+      <c r="XW2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="UP2" s="10" t="s">
+      <c r="XX2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="UQ2" s="10" t="s">
+      <c r="XY2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="UR2" s="10" t="s">
+      <c r="XZ2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="US2" s="10" t="s">
+      <c r="YA2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="UT2" s="10" t="s">
+      <c r="YB2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="UU2" s="10" t="s">
+      <c r="YC2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="UV2" s="10" t="s">
+      <c r="YD2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="UW2" s="10" t="s">
+      <c r="YE2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="UX2" s="10" t="s">
+      <c r="YF2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="UY2" s="10" t="s">
+      <c r="YG2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="UZ2" s="10" t="s">
+      <c r="YH2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="VA2" s="10" t="s">
+      <c r="YI2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="VB2" s="10" t="s">
+      <c r="YJ2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="VC2" s="10" t="s">
+      <c r="YK2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="VD2" s="10" t="s">
+      <c r="YL2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="VE2" s="10" t="s">
+      <c r="YM2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="VF2" s="10" t="s">
+      <c r="YN2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="VG2" s="10" t="s">
+      <c r="YO2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="VH2" s="10" t="s">
+      <c r="YP2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="VI2" s="10" t="s">
+      <c r="YQ2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="VJ2" s="10" t="s">
+      <c r="YR2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="VK2" s="10" t="s">
+      <c r="YS2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="VL2" s="10" t="s">
+      <c r="YT2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="VM2" s="10" t="s">
+      <c r="YU2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="VN2" s="10" t="s">
+      <c r="YV2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="VO2" s="10" t="s">
+      <c r="YW2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="VP2" s="10" t="s">
+      <c r="YX2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="VQ2" s="10" t="s">
+      <c r="YY2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="VR2" s="10" t="s">
+      <c r="YZ2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="VS2" s="10" t="s">
+      <c r="ZA2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="VT2" s="10" t="s">
+      <c r="ZB2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="VU2" s="10" t="s">
+      <c r="ZC2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="VV2" s="10" t="s">
+      <c r="ZD2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="VW2" s="10" t="s">
+      <c r="ZE2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="VX2" s="10" t="s">
+      <c r="ZF2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="VY2" s="10" t="s">
+      <c r="ZG2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="VZ2" s="10" t="s">
+      <c r="ZH2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="WA2" s="10" t="s">
+      <c r="ZI2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="WB2" s="10" t="s">
+      <c r="ZJ2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="WC2" s="10" t="s">
+      <c r="ZK2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="WD2" s="10" t="s">
+      <c r="ZL2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="WE2" s="10" t="s">
+      <c r="ZM2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="WF2" s="10" t="s">
+      <c r="ZN2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="WG2" s="10" t="s">
+      <c r="ZO2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="WH2" s="10" t="s">
+      <c r="ZP2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="WI2" s="10" t="s">
+      <c r="ZQ2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="WJ2" s="10" t="s">
+      <c r="ZR2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="WK2" s="10" t="s">
+      <c r="ZS2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="WL2" s="10" t="s">
+      <c r="ZT2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="WM2" s="10" t="s">
+      <c r="ZU2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="WN2" s="10" t="s">
+      <c r="ZV2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="WO2" s="10" t="s">
+      <c r="ZW2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="WP2" s="10" t="s">
+      <c r="ZX2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="WQ2" s="10" t="s">
+      <c r="ZY2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="WR2" s="10" t="s">
+      <c r="ZZ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="WS2" s="10" t="s">
+      <c r="AAA2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="WT2" s="10" t="s">
+      <c r="AAB2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="WU2" s="10" t="s">
+      <c r="AAC2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="WV2" s="10" t="s">
+      <c r="AAD2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="WW2" s="10" t="s">
+      <c r="AAE2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="WX2" s="10" t="s">
+      <c r="AAF2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="WY2" s="10" t="s">
+      <c r="AAG2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="WZ2" s="10" t="s">
+      <c r="AAH2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="XA2" s="10" t="s">
+      <c r="AAI2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="XB2" s="10" t="s">
+      <c r="AAJ2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="XC2" s="10" t="s">
+      <c r="AAK2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="XD2" s="10" t="s">
+      <c r="AAL2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="XE2" s="10" t="s">
+      <c r="AAM2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="XF2" s="10" t="s">
+      <c r="AAN2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="XG2" s="10" t="s">
+      <c r="AAO2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="XH2" s="10" t="s">
+      <c r="AAP2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="XI2" s="10" t="s">
+      <c r="AAQ2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="XJ2" s="10" t="s">
+      <c r="AAR2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="XK2" s="10" t="s">
+      <c r="AAS2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="XL2" s="10" t="s">
+      <c r="AAT2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="XM2" s="10" t="s">
+      <c r="AAU2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="XN2" s="10" t="s">
+      <c r="AAV2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="XO2" s="10" t="s">
+      <c r="AAW2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="XP2" s="10" t="s">
+      <c r="AAX2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="XQ2" s="10" t="s">
+      <c r="AAY2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="XR2" s="10" t="s">
+      <c r="AAZ2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="XS2" s="11" t="s">
+      <c r="ABA2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="XT2" s="12" t="s">
+      <c r="ABB2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="XU2" s="13" t="s">
+      <c r="ABC2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="XV2" s="13" t="s">
+      <c r="ABD2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="XW2" s="13" t="s">
+      <c r="ABE2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="XX2" s="13" t="s">
+      <c r="ABF2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="XY2" s="13" t="s">
+      <c r="ABG2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="XZ2" s="13" t="s">
+      <c r="ABH2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="YA2" s="13" t="s">
+      <c r="ABI2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="YB2" s="13" t="s">
+      <c r="ABJ2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="YC2" s="13" t="s">
+      <c r="ABK2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="YD2" s="13" t="s">
+      <c r="ABL2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="YE2" s="13" t="s">
+      <c r="ABM2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="YF2" s="13" t="s">
+      <c r="ABN2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="YG2" s="13" t="s">
+      <c r="ABO2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="YH2" s="13" t="s">
+      <c r="ABP2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="YI2" s="13" t="s">
+      <c r="ABQ2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="YJ2" s="13" t="s">
+      <c r="ABR2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="YK2" s="13" t="s">
+      <c r="ABS2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="YL2" s="13" t="s">
+      <c r="ABT2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="YM2" s="13" t="s">
+      <c r="ABU2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="YN2" s="13" t="s">
+      <c r="ABV2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="YO2" s="13" t="s">
+      <c r="ABW2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="YP2" s="13" t="s">
+      <c r="ABX2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="YQ2" s="13" t="s">
+      <c r="ABY2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="YR2" s="13" t="s">
+      <c r="ABZ2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="YS2" s="13" t="s">
+      <c r="ACA2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="YT2" s="13" t="s">
+      <c r="ACB2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="YU2" s="13" t="s">
+      <c r="ACC2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="YV2" s="13" t="s">
+      <c r="ACD2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="YW2" s="13" t="s">
+      <c r="ACE2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="YX2" s="13" t="s">
+      <c r="ACF2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="YY2" s="13" t="s">
+      <c r="ACG2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="YZ2" s="13" t="s">
+      <c r="ACH2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="ZA2" s="13" t="s">
+      <c r="ACI2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="ZB2" s="13" t="s">
+      <c r="ACJ2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="ZC2" s="13" t="s">
+      <c r="ACK2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="ZD2" s="13" t="s">
+      <c r="ACL2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="ZE2" s="13" t="s">
+      <c r="ACM2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="ZF2" s="13" t="s">
+      <c r="ACN2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="ZG2" s="13" t="s">
+      <c r="ACO2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="ZH2" s="13" t="s">
+      <c r="ACP2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="ZI2" s="13" t="s">
+      <c r="ACQ2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="ZJ2" s="13" t="s">
+      <c r="ACR2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="ZK2" s="13" t="s">
+      <c r="ACS2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="ZL2" s="13" t="s">
+      <c r="ACT2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="ZM2" s="13" t="s">
+      <c r="ACU2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="ZN2" s="13" t="s">
+      <c r="ACV2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="ZO2" s="13" t="s">
+      <c r="ACW2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="ZP2" s="13" t="s">
+      <c r="ACX2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="ZQ2" s="13" t="s">
+      <c r="ACY2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="ZR2" s="13" t="s">
+      <c r="ACZ2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="ZS2" s="13" t="s">
+      <c r="ADA2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="ZT2" s="13" t="s">
+      <c r="ADB2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="ZU2" s="13" t="s">
+      <c r="ADC2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="ZV2" s="13" t="s">
+      <c r="ADD2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="ZW2" s="13" t="s">
+      <c r="ADE2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="ZX2" s="13" t="s">
+      <c r="ADF2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="ZY2" s="13" t="s">
+      <c r="ADG2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="ZZ2" s="13" t="s">
+      <c r="ADH2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AAA2" s="13" t="s">
+      <c r="ADI2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AAB2" s="13" t="s">
+      <c r="ADJ2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AAC2" s="13" t="s">
+      <c r="ADK2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AAD2" s="13" t="s">
+      <c r="ADL2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AAE2" s="13" t="s">
+      <c r="ADM2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AAF2" s="13" t="s">
+      <c r="ADN2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AAG2" s="13" t="s">
+      <c r="ADO2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AAH2" s="13" t="s">
+      <c r="ADP2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AAI2" s="13" t="s">
+      <c r="ADQ2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AAJ2" s="13" t="s">
+      <c r="ADR2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AAK2" s="13" t="s">
+      <c r="ADS2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AAL2" s="13" t="s">
+      <c r="ADT2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AAM2" s="13" t="s">
+      <c r="ADU2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AAN2" s="13" t="s">
+      <c r="ADV2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AAO2" s="13" t="s">
+      <c r="ADW2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AAP2" s="13" t="s">
+      <c r="ADX2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AAQ2" s="13" t="s">
+      <c r="ADY2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AAR2" s="13" t="s">
+      <c r="ADZ2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AAS2" s="13" t="s">
+      <c r="AEA2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AAT2" s="13" t="s">
+      <c r="AEB2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AAU2" s="13" t="s">
+      <c r="AEC2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AAV2" s="13" t="s">
+      <c r="AED2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AAW2" s="13" t="s">
+      <c r="AEE2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AAX2" s="13" t="s">
+      <c r="AEF2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AAY2" s="13" t="s">
+      <c r="AEG2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AAZ2" s="13" t="s">
+      <c r="AEH2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="ABA2" s="13" t="s">
+      <c r="AEI2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="ABB2" s="13" t="s">
+      <c r="AEJ2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="ABC2" s="13" t="s">
+      <c r="AEK2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="ABD2" s="13" t="s">
+      <c r="AEL2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="ABE2" s="13" t="s">
+      <c r="AEM2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="ABF2" s="13" t="s">
+      <c r="AEN2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="ABG2" s="13" t="s">
+      <c r="AEO2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="ABH2" s="13" t="s">
+      <c r="AEP2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="ABI2" s="13" t="s">
+      <c r="AEQ2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="ABJ2" s="13" t="s">
+      <c r="AER2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="ABK2" s="13" t="s">
+      <c r="AES2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="ABL2" s="13" t="s">
+      <c r="AET2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="ABM2" s="13" t="s">
+      <c r="AEU2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="ABN2" s="13" t="s">
+      <c r="AEV2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="ABO2" s="13" t="s">
+      <c r="AEW2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="ABP2" s="13" t="s">
+      <c r="AEX2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="ABQ2" s="13" t="s">
+      <c r="AEY2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="ABR2" s="13" t="s">
+      <c r="AEZ2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="ABS2" s="13" t="s">
+      <c r="AFA2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="ABT2" s="13" t="s">
+      <c r="AFB2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="ABU2" s="13" t="s">
+      <c r="AFC2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="ABV2" s="13" t="s">
+      <c r="AFD2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="ABW2" s="13" t="s">
+      <c r="AFE2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="ABX2" s="13" t="s">
+      <c r="AFF2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="ABY2" s="13" t="s">
+      <c r="AFG2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="ABZ2" s="13" t="s">
+      <c r="AFH2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="ACA2" s="13" t="s">
+      <c r="AFI2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="ACB2" s="13" t="s">
+      <c r="AFJ2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="ACC2" s="13" t="s">
+      <c r="AFK2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="ACD2" s="13" t="s">
+      <c r="AFL2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="ACE2" s="13" t="s">
+      <c r="AFM2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="ACF2" s="13" t="s">
+      <c r="AFN2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="ACG2" s="13" t="s">
+      <c r="AFO2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="ACH2" s="13" t="s">
+      <c r="AFP2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="ACI2" s="13" t="s">
+      <c r="AFQ2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="ACJ2" s="13" t="s">
+      <c r="AFR2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="ACK2" s="13" t="s">
+      <c r="AFS2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="ACL2" s="13" t="s">
+      <c r="AFT2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="ACM2" s="13" t="s">
+      <c r="AFU2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="ACN2" s="13" t="s">
+      <c r="AFV2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="ACO2" s="13" t="s">
+      <c r="AFW2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="ACP2" s="13" t="s">
+      <c r="AFX2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="ACQ2" s="14" t="s">
+      <c r="AFY2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="ACS2" s="1" t="s">
+      <c r="AGA2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="ACT2" s="1" t="s">
+      <c r="AGB2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="ACU2" s="1" t="s">
+      <c r="AGC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="ACV2" s="1" t="s">
+      <c r="AGD2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="ACW2" s="4" t="s">
+      <c r="AGE2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="ACX2" s="4" t="s">
+      <c r="AGF2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="XT1:ACQ1"/>
-    <mergeCell ref="ACS1:ACX1"/>
+  <mergeCells count="31">
+    <mergeCell ref="CK1:CK2"/>
+    <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="BZ1:CC1"/>
+    <mergeCell ref="CD1:CD2"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="ABB1:AFY1"/>
+    <mergeCell ref="AGA1:AGF1"/>
+    <mergeCell ref="CL1:HI1"/>
+    <mergeCell ref="HJ1:MG1"/>
+    <mergeCell ref="MH1:RE1"/>
+    <mergeCell ref="RF1:WC1"/>
+    <mergeCell ref="WD1:ABA1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:EA1"/>
-    <mergeCell ref="EB1:IY1"/>
-    <mergeCell ref="IZ1:NW1"/>
-    <mergeCell ref="NX1:SU1"/>
-    <mergeCell ref="SV1:XS1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
